--- a/tools_n_data/elCondorPasa.xlsx
+++ b/tools_n_data/elCondorPasa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="52">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -655,10 +655,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CU419"/>
+  <dimension ref="A1:CU467"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3034,7 +3034,9 @@
       <c r="AT45" s="21"/>
       <c r="AU45" s="21"/>
       <c r="AV45" s="21"/>
-      <c r="AW45" s="21"/>
+      <c r="AW45" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="AX45" s="8" t="s">
         <v>34</v>
       </c>
@@ -3324,6 +3326,9 @@
       </c>
     </row>
     <row r="51" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -3372,7 +3377,9 @@
       <c r="AU51" s="19"/>
       <c r="AV51" s="19"/>
       <c r="AW51" s="19"/>
-      <c r="AX51" s="8"/>
+      <c r="AX51" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
@@ -3424,7 +3431,9 @@
       <c r="CU51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
+      <c r="A52" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="B52" s="18"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
@@ -3473,10 +3482,14 @@
       <c r="AU52" s="21"/>
       <c r="AV52" s="21"/>
       <c r="AW52" s="21"/>
-      <c r="AX52" s="8"/>
+      <c r="AX52" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8"/>
+      <c r="A53" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B53" s="18"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
@@ -3525,10 +3538,14 @@
       <c r="AU53" s="21"/>
       <c r="AV53" s="21"/>
       <c r="AW53" s="21"/>
-      <c r="AX53" s="8"/>
+      <c r="AX53" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
+      <c r="A54" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="B54" s="18"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
@@ -3577,10 +3594,14 @@
       <c r="AU54" s="21"/>
       <c r="AV54" s="22"/>
       <c r="AW54" s="21"/>
-      <c r="AX54" s="8"/>
+      <c r="AX54" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8"/>
+      <c r="A55" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="B55" s="18"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
@@ -3629,10 +3650,14 @@
       <c r="AU55" s="21"/>
       <c r="AV55" s="21"/>
       <c r="AW55" s="21"/>
-      <c r="AX55" s="8"/>
-    </row>
-    <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
+      <c r="AX55" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -3681,10 +3706,14 @@
       <c r="AU56" s="23"/>
       <c r="AV56" s="23"/>
       <c r="AW56" s="23"/>
-      <c r="AX56" s="8"/>
+      <c r="AX56" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8"/>
+      <c r="A57" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="B57" s="18"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -3733,10 +3762,14 @@
       <c r="AU57" s="24"/>
       <c r="AV57" s="24"/>
       <c r="AW57" s="24"/>
-      <c r="AX57" s="8"/>
+      <c r="AX57" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="B58" s="18"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
@@ -3785,9 +3818,14 @@
       <c r="AU58" s="24"/>
       <c r="AV58" s="24"/>
       <c r="AW58" s="24"/>
-      <c r="AX58" s="8"/>
+      <c r="AX58" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="59" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -3836,7 +3874,9 @@
       <c r="AU59" s="19"/>
       <c r="AV59" s="19"/>
       <c r="AW59" s="19"/>
-      <c r="AX59" s="8"/>
+      <c r="AX59" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="AY59" s="1"/>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
@@ -3888,7 +3928,9 @@
       <c r="CU59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8"/>
+      <c r="A60" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="B60" s="18"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
@@ -3937,10 +3979,14 @@
       <c r="AU60" s="21"/>
       <c r="AV60" s="21"/>
       <c r="AW60" s="21"/>
-      <c r="AX60" s="8"/>
+      <c r="AX60" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8"/>
+      <c r="A61" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B61" s="18"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
@@ -3989,10 +4035,14 @@
       <c r="AU61" s="21"/>
       <c r="AV61" s="21"/>
       <c r="AW61" s="21"/>
-      <c r="AX61" s="8"/>
+      <c r="AX61" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8"/>
+      <c r="A62" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="B62" s="18"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
@@ -4041,10 +4091,14 @@
       <c r="AU62" s="21"/>
       <c r="AV62" s="22"/>
       <c r="AW62" s="21"/>
-      <c r="AX62" s="8"/>
+      <c r="AX62" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8"/>
+      <c r="A63" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="B63" s="18"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
@@ -4093,10 +4147,14 @@
       <c r="AU63" s="21"/>
       <c r="AV63" s="21"/>
       <c r="AW63" s="21"/>
-      <c r="AX63" s="8"/>
-    </row>
-    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8"/>
+      <c r="AX63" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -4145,10 +4203,14 @@
       <c r="AU64" s="23"/>
       <c r="AV64" s="23"/>
       <c r="AW64" s="23"/>
-      <c r="AX64" s="8"/>
+      <c r="AX64" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8"/>
+      <c r="A65" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="B65" s="18"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -4197,10 +4259,14 @@
       <c r="AU65" s="24"/>
       <c r="AV65" s="24"/>
       <c r="AW65" s="24"/>
-      <c r="AX65" s="8"/>
+      <c r="AX65" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="B66" s="18"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
@@ -4249,7 +4315,9 @@
       <c r="AU66" s="24"/>
       <c r="AV66" s="24"/>
       <c r="AW66" s="24"/>
-      <c r="AX66" s="8"/>
+      <c r="AX66" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="67" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="18"/>
@@ -24767,6 +24835,2790 @@
       <c r="CT419" s="1"/>
       <c r="CU419" s="1"/>
     </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="8"/>
+      <c r="B420" s="18"/>
+      <c r="C420" s="21"/>
+      <c r="D420" s="21"/>
+      <c r="E420" s="21"/>
+      <c r="F420" s="21"/>
+      <c r="G420" s="21"/>
+      <c r="H420" s="22"/>
+      <c r="I420" s="21"/>
+      <c r="J420" s="18"/>
+      <c r="K420" s="21"/>
+      <c r="L420" s="21"/>
+      <c r="M420" s="21"/>
+      <c r="N420" s="21"/>
+      <c r="O420" s="21"/>
+      <c r="P420" s="22"/>
+      <c r="Q420" s="21"/>
+      <c r="R420" s="18"/>
+      <c r="S420" s="21"/>
+      <c r="T420" s="21"/>
+      <c r="U420" s="21"/>
+      <c r="V420" s="22"/>
+      <c r="W420" s="21"/>
+      <c r="X420" s="22"/>
+      <c r="Y420" s="21"/>
+      <c r="Z420" s="18"/>
+      <c r="AA420" s="21"/>
+      <c r="AB420" s="21"/>
+      <c r="AC420" s="21"/>
+      <c r="AD420" s="21"/>
+      <c r="AE420" s="21"/>
+      <c r="AF420" s="21"/>
+      <c r="AG420" s="21"/>
+      <c r="AH420" s="18"/>
+      <c r="AI420" s="21"/>
+      <c r="AJ420" s="21"/>
+      <c r="AK420" s="21"/>
+      <c r="AL420" s="22"/>
+      <c r="AM420" s="21"/>
+      <c r="AN420" s="22"/>
+      <c r="AO420" s="21"/>
+      <c r="AP420" s="18"/>
+      <c r="AQ420" s="21"/>
+      <c r="AR420" s="21"/>
+      <c r="AS420" s="21"/>
+      <c r="AT420" s="21"/>
+      <c r="AU420" s="21"/>
+      <c r="AV420" s="21"/>
+      <c r="AW420" s="21"/>
+      <c r="AX420" s="8"/>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="8"/>
+      <c r="B421" s="18"/>
+      <c r="C421" s="21"/>
+      <c r="D421" s="21"/>
+      <c r="E421" s="21"/>
+      <c r="F421" s="21"/>
+      <c r="G421" s="21"/>
+      <c r="H421" s="21"/>
+      <c r="I421" s="21"/>
+      <c r="J421" s="18"/>
+      <c r="K421" s="21"/>
+      <c r="L421" s="21"/>
+      <c r="M421" s="21"/>
+      <c r="N421" s="21"/>
+      <c r="O421" s="21"/>
+      <c r="P421" s="21"/>
+      <c r="Q421" s="21"/>
+      <c r="R421" s="18"/>
+      <c r="S421" s="21"/>
+      <c r="T421" s="21"/>
+      <c r="U421" s="21"/>
+      <c r="V421" s="21"/>
+      <c r="W421" s="21"/>
+      <c r="X421" s="22"/>
+      <c r="Y421" s="21"/>
+      <c r="Z421" s="18"/>
+      <c r="AA421" s="21"/>
+      <c r="AB421" s="21"/>
+      <c r="AC421" s="21"/>
+      <c r="AD421" s="21"/>
+      <c r="AE421" s="21"/>
+      <c r="AF421" s="21"/>
+      <c r="AG421" s="21"/>
+      <c r="AH421" s="18"/>
+      <c r="AI421" s="21"/>
+      <c r="AJ421" s="21"/>
+      <c r="AK421" s="21"/>
+      <c r="AL421" s="21"/>
+      <c r="AM421" s="21"/>
+      <c r="AN421" s="22"/>
+      <c r="AO421" s="21"/>
+      <c r="AP421" s="18"/>
+      <c r="AQ421" s="21"/>
+      <c r="AR421" s="21"/>
+      <c r="AS421" s="21"/>
+      <c r="AT421" s="21"/>
+      <c r="AU421" s="21"/>
+      <c r="AV421" s="21"/>
+      <c r="AW421" s="21"/>
+      <c r="AX421" s="8"/>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="8"/>
+      <c r="B422" s="18"/>
+      <c r="C422" s="21"/>
+      <c r="D422" s="21"/>
+      <c r="E422" s="21"/>
+      <c r="F422" s="21"/>
+      <c r="G422" s="21"/>
+      <c r="H422" s="21"/>
+      <c r="I422" s="21"/>
+      <c r="J422" s="18"/>
+      <c r="K422" s="21"/>
+      <c r="L422" s="21"/>
+      <c r="M422" s="21"/>
+      <c r="N422" s="21"/>
+      <c r="O422" s="21"/>
+      <c r="P422" s="21"/>
+      <c r="Q422" s="21"/>
+      <c r="R422" s="18"/>
+      <c r="S422" s="21"/>
+      <c r="T422" s="21"/>
+      <c r="U422" s="21"/>
+      <c r="V422" s="21"/>
+      <c r="W422" s="21"/>
+      <c r="X422" s="22"/>
+      <c r="Y422" s="21"/>
+      <c r="Z422" s="18"/>
+      <c r="AA422" s="21"/>
+      <c r="AB422" s="21"/>
+      <c r="AC422" s="21"/>
+      <c r="AD422" s="21"/>
+      <c r="AE422" s="21"/>
+      <c r="AF422" s="22"/>
+      <c r="AG422" s="21"/>
+      <c r="AH422" s="18"/>
+      <c r="AI422" s="21"/>
+      <c r="AJ422" s="21"/>
+      <c r="AK422" s="21"/>
+      <c r="AL422" s="21"/>
+      <c r="AM422" s="21"/>
+      <c r="AN422" s="22"/>
+      <c r="AO422" s="21"/>
+      <c r="AP422" s="18"/>
+      <c r="AQ422" s="21"/>
+      <c r="AR422" s="21"/>
+      <c r="AS422" s="21"/>
+      <c r="AT422" s="21"/>
+      <c r="AU422" s="21"/>
+      <c r="AV422" s="22"/>
+      <c r="AW422" s="21"/>
+      <c r="AX422" s="8"/>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="8"/>
+      <c r="B423" s="18"/>
+      <c r="C423" s="21"/>
+      <c r="D423" s="21"/>
+      <c r="E423" s="21"/>
+      <c r="F423" s="21"/>
+      <c r="G423" s="21"/>
+      <c r="H423" s="21"/>
+      <c r="I423" s="21"/>
+      <c r="J423" s="18"/>
+      <c r="K423" s="21"/>
+      <c r="L423" s="21"/>
+      <c r="M423" s="21"/>
+      <c r="N423" s="21"/>
+      <c r="O423" s="21"/>
+      <c r="P423" s="21"/>
+      <c r="Q423" s="21"/>
+      <c r="R423" s="18"/>
+      <c r="S423" s="21"/>
+      <c r="T423" s="21"/>
+      <c r="U423" s="21"/>
+      <c r="V423" s="21"/>
+      <c r="W423" s="21"/>
+      <c r="X423" s="21"/>
+      <c r="Y423" s="21"/>
+      <c r="Z423" s="18"/>
+      <c r="AA423" s="21"/>
+      <c r="AB423" s="21"/>
+      <c r="AC423" s="21"/>
+      <c r="AD423" s="21"/>
+      <c r="AE423" s="21"/>
+      <c r="AF423" s="21"/>
+      <c r="AG423" s="21"/>
+      <c r="AH423" s="18"/>
+      <c r="AI423" s="21"/>
+      <c r="AJ423" s="21"/>
+      <c r="AK423" s="21"/>
+      <c r="AL423" s="21"/>
+      <c r="AM423" s="21"/>
+      <c r="AN423" s="21"/>
+      <c r="AO423" s="21"/>
+      <c r="AP423" s="18"/>
+      <c r="AQ423" s="21"/>
+      <c r="AR423" s="21"/>
+      <c r="AS423" s="21"/>
+      <c r="AT423" s="21"/>
+      <c r="AU423" s="21"/>
+      <c r="AV423" s="21"/>
+      <c r="AW423" s="21"/>
+      <c r="AX423" s="8"/>
+    </row>
+    <row r="424" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="8"/>
+      <c r="B424" s="23"/>
+      <c r="C424" s="23"/>
+      <c r="D424" s="23"/>
+      <c r="E424" s="23"/>
+      <c r="F424" s="23"/>
+      <c r="G424" s="23"/>
+      <c r="H424" s="23"/>
+      <c r="I424" s="23"/>
+      <c r="J424" s="23"/>
+      <c r="K424" s="23"/>
+      <c r="L424" s="23"/>
+      <c r="M424" s="23"/>
+      <c r="N424" s="23"/>
+      <c r="O424" s="23"/>
+      <c r="P424" s="23"/>
+      <c r="Q424" s="23"/>
+      <c r="R424" s="23"/>
+      <c r="S424" s="23"/>
+      <c r="T424" s="23"/>
+      <c r="U424" s="23"/>
+      <c r="V424" s="23"/>
+      <c r="W424" s="23"/>
+      <c r="X424" s="23"/>
+      <c r="Y424" s="23"/>
+      <c r="Z424" s="23"/>
+      <c r="AA424" s="23"/>
+      <c r="AB424" s="23"/>
+      <c r="AC424" s="23"/>
+      <c r="AD424" s="23"/>
+      <c r="AE424" s="23"/>
+      <c r="AF424" s="23"/>
+      <c r="AG424" s="23"/>
+      <c r="AH424" s="23"/>
+      <c r="AI424" s="23"/>
+      <c r="AJ424" s="23"/>
+      <c r="AK424" s="23"/>
+      <c r="AL424" s="23"/>
+      <c r="AM424" s="23"/>
+      <c r="AN424" s="23"/>
+      <c r="AO424" s="23"/>
+      <c r="AP424" s="23"/>
+      <c r="AQ424" s="23"/>
+      <c r="AR424" s="23"/>
+      <c r="AS424" s="23"/>
+      <c r="AT424" s="23"/>
+      <c r="AU424" s="23"/>
+      <c r="AV424" s="23"/>
+      <c r="AW424" s="23"/>
+      <c r="AX424" s="8"/>
+    </row>
+    <row r="425" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="8"/>
+      <c r="B425" s="18"/>
+      <c r="C425" s="24"/>
+      <c r="D425" s="24"/>
+      <c r="E425" s="24"/>
+      <c r="F425" s="24"/>
+      <c r="G425" s="24"/>
+      <c r="H425" s="24"/>
+      <c r="I425" s="24"/>
+      <c r="J425" s="18"/>
+      <c r="K425" s="24"/>
+      <c r="L425" s="24"/>
+      <c r="M425" s="24"/>
+      <c r="N425" s="24"/>
+      <c r="O425" s="24"/>
+      <c r="P425" s="24"/>
+      <c r="Q425" s="24"/>
+      <c r="R425" s="18"/>
+      <c r="S425" s="24"/>
+      <c r="T425" s="24"/>
+      <c r="U425" s="24"/>
+      <c r="V425" s="24"/>
+      <c r="W425" s="24"/>
+      <c r="X425" s="24"/>
+      <c r="Y425" s="24"/>
+      <c r="Z425" s="18"/>
+      <c r="AA425" s="24"/>
+      <c r="AB425" s="24"/>
+      <c r="AC425" s="24"/>
+      <c r="AD425" s="24"/>
+      <c r="AE425" s="24"/>
+      <c r="AF425" s="24"/>
+      <c r="AG425" s="24"/>
+      <c r="AH425" s="18"/>
+      <c r="AI425" s="24"/>
+      <c r="AJ425" s="24"/>
+      <c r="AK425" s="24"/>
+      <c r="AL425" s="24"/>
+      <c r="AM425" s="24"/>
+      <c r="AN425" s="24"/>
+      <c r="AO425" s="24"/>
+      <c r="AP425" s="18"/>
+      <c r="AQ425" s="24"/>
+      <c r="AR425" s="24"/>
+      <c r="AS425" s="24"/>
+      <c r="AT425" s="24"/>
+      <c r="AU425" s="24"/>
+      <c r="AV425" s="24"/>
+      <c r="AW425" s="24"/>
+      <c r="AX425" s="8"/>
+    </row>
+    <row r="426" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="8"/>
+      <c r="B426" s="18"/>
+      <c r="C426" s="24"/>
+      <c r="D426" s="24"/>
+      <c r="E426" s="24"/>
+      <c r="F426" s="24"/>
+      <c r="G426" s="24"/>
+      <c r="H426" s="24"/>
+      <c r="I426" s="24"/>
+      <c r="J426" s="18"/>
+      <c r="K426" s="24"/>
+      <c r="L426" s="24"/>
+      <c r="M426" s="24"/>
+      <c r="N426" s="24"/>
+      <c r="O426" s="24"/>
+      <c r="P426" s="24"/>
+      <c r="Q426" s="24"/>
+      <c r="R426" s="18"/>
+      <c r="S426" s="24"/>
+      <c r="T426" s="24"/>
+      <c r="U426" s="24"/>
+      <c r="V426" s="24"/>
+      <c r="W426" s="24"/>
+      <c r="X426" s="24"/>
+      <c r="Y426" s="24"/>
+      <c r="Z426" s="18"/>
+      <c r="AA426" s="24"/>
+      <c r="AB426" s="24"/>
+      <c r="AC426" s="24"/>
+      <c r="AD426" s="24"/>
+      <c r="AE426" s="24"/>
+      <c r="AF426" s="24"/>
+      <c r="AG426" s="24"/>
+      <c r="AH426" s="18"/>
+      <c r="AI426" s="24"/>
+      <c r="AJ426" s="24"/>
+      <c r="AK426" s="24"/>
+      <c r="AL426" s="24"/>
+      <c r="AM426" s="24"/>
+      <c r="AN426" s="24"/>
+      <c r="AO426" s="24"/>
+      <c r="AP426" s="18"/>
+      <c r="AQ426" s="24"/>
+      <c r="AR426" s="24"/>
+      <c r="AS426" s="24"/>
+      <c r="AT426" s="24"/>
+      <c r="AU426" s="24"/>
+      <c r="AV426" s="24"/>
+      <c r="AW426" s="24"/>
+      <c r="AX426" s="8"/>
+    </row>
+    <row r="427" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="18"/>
+      <c r="C427" s="19"/>
+      <c r="D427" s="19"/>
+      <c r="E427" s="19"/>
+      <c r="F427" s="19"/>
+      <c r="G427" s="19"/>
+      <c r="H427" s="19"/>
+      <c r="I427" s="19"/>
+      <c r="J427" s="18"/>
+      <c r="K427" s="19"/>
+      <c r="L427" s="19"/>
+      <c r="M427" s="19"/>
+      <c r="N427" s="19"/>
+      <c r="O427" s="19"/>
+      <c r="P427" s="19"/>
+      <c r="Q427" s="19"/>
+      <c r="R427" s="18"/>
+      <c r="S427" s="19"/>
+      <c r="T427" s="19"/>
+      <c r="U427" s="19"/>
+      <c r="V427" s="19"/>
+      <c r="W427" s="19"/>
+      <c r="X427" s="19"/>
+      <c r="Y427" s="19"/>
+      <c r="Z427" s="18"/>
+      <c r="AA427" s="19"/>
+      <c r="AB427" s="19"/>
+      <c r="AC427" s="19"/>
+      <c r="AD427" s="19"/>
+      <c r="AE427" s="19"/>
+      <c r="AF427" s="19"/>
+      <c r="AG427" s="19"/>
+      <c r="AH427" s="18"/>
+      <c r="AI427" s="19"/>
+      <c r="AJ427" s="19"/>
+      <c r="AK427" s="19"/>
+      <c r="AL427" s="19"/>
+      <c r="AM427" s="19"/>
+      <c r="AN427" s="19"/>
+      <c r="AO427" s="19"/>
+      <c r="AP427" s="18"/>
+      <c r="AQ427" s="19"/>
+      <c r="AR427" s="19"/>
+      <c r="AS427" s="19"/>
+      <c r="AT427" s="19"/>
+      <c r="AU427" s="19"/>
+      <c r="AV427" s="19"/>
+      <c r="AW427" s="19"/>
+      <c r="AX427" s="8"/>
+      <c r="AY427" s="1"/>
+      <c r="AZ427" s="1"/>
+      <c r="BA427" s="1"/>
+      <c r="BB427" s="1"/>
+      <c r="BC427" s="1"/>
+      <c r="BD427" s="1"/>
+      <c r="BE427" s="1"/>
+      <c r="BF427" s="1"/>
+      <c r="BG427" s="1"/>
+      <c r="BH427" s="1"/>
+      <c r="BI427" s="1"/>
+      <c r="BJ427" s="1"/>
+      <c r="BK427" s="1"/>
+      <c r="BL427" s="1"/>
+      <c r="BM427" s="1"/>
+      <c r="BN427" s="1"/>
+      <c r="BO427" s="1"/>
+      <c r="BP427" s="1"/>
+      <c r="BQ427" s="1"/>
+      <c r="BR427" s="1"/>
+      <c r="BS427" s="1"/>
+      <c r="BT427" s="1"/>
+      <c r="BU427" s="1"/>
+      <c r="BV427" s="1"/>
+      <c r="BW427" s="1"/>
+      <c r="BX427" s="1"/>
+      <c r="BY427" s="1"/>
+      <c r="BZ427" s="1"/>
+      <c r="CA427" s="1"/>
+      <c r="CB427" s="1"/>
+      <c r="CC427" s="1"/>
+      <c r="CD427" s="1"/>
+      <c r="CE427" s="1"/>
+      <c r="CF427" s="1"/>
+      <c r="CG427" s="1"/>
+      <c r="CH427" s="1"/>
+      <c r="CI427" s="1"/>
+      <c r="CJ427" s="1"/>
+      <c r="CK427" s="1"/>
+      <c r="CL427" s="1"/>
+      <c r="CM427" s="1"/>
+      <c r="CN427" s="1"/>
+      <c r="CO427" s="1"/>
+      <c r="CP427" s="1"/>
+      <c r="CQ427" s="1"/>
+      <c r="CR427" s="1"/>
+      <c r="CS427" s="1"/>
+      <c r="CT427" s="1"/>
+      <c r="CU427" s="1"/>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="8"/>
+      <c r="B428" s="18"/>
+      <c r="C428" s="21"/>
+      <c r="D428" s="21"/>
+      <c r="E428" s="21"/>
+      <c r="F428" s="21"/>
+      <c r="G428" s="21"/>
+      <c r="H428" s="22"/>
+      <c r="I428" s="21"/>
+      <c r="J428" s="18"/>
+      <c r="K428" s="21"/>
+      <c r="L428" s="21"/>
+      <c r="M428" s="21"/>
+      <c r="N428" s="21"/>
+      <c r="O428" s="21"/>
+      <c r="P428" s="22"/>
+      <c r="Q428" s="21"/>
+      <c r="R428" s="18"/>
+      <c r="S428" s="21"/>
+      <c r="T428" s="21"/>
+      <c r="U428" s="21"/>
+      <c r="V428" s="22"/>
+      <c r="W428" s="21"/>
+      <c r="X428" s="22"/>
+      <c r="Y428" s="21"/>
+      <c r="Z428" s="18"/>
+      <c r="AA428" s="21"/>
+      <c r="AB428" s="21"/>
+      <c r="AC428" s="21"/>
+      <c r="AD428" s="21"/>
+      <c r="AE428" s="21"/>
+      <c r="AF428" s="21"/>
+      <c r="AG428" s="21"/>
+      <c r="AH428" s="18"/>
+      <c r="AI428" s="21"/>
+      <c r="AJ428" s="21"/>
+      <c r="AK428" s="21"/>
+      <c r="AL428" s="22"/>
+      <c r="AM428" s="21"/>
+      <c r="AN428" s="22"/>
+      <c r="AO428" s="21"/>
+      <c r="AP428" s="18"/>
+      <c r="AQ428" s="21"/>
+      <c r="AR428" s="21"/>
+      <c r="AS428" s="21"/>
+      <c r="AT428" s="21"/>
+      <c r="AU428" s="21"/>
+      <c r="AV428" s="21"/>
+      <c r="AW428" s="21"/>
+      <c r="AX428" s="8"/>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="8"/>
+      <c r="B429" s="18"/>
+      <c r="C429" s="21"/>
+      <c r="D429" s="21"/>
+      <c r="E429" s="21"/>
+      <c r="F429" s="21"/>
+      <c r="G429" s="21"/>
+      <c r="H429" s="21"/>
+      <c r="I429" s="21"/>
+      <c r="J429" s="18"/>
+      <c r="K429" s="21"/>
+      <c r="L429" s="21"/>
+      <c r="M429" s="21"/>
+      <c r="N429" s="21"/>
+      <c r="O429" s="21"/>
+      <c r="P429" s="21"/>
+      <c r="Q429" s="21"/>
+      <c r="R429" s="18"/>
+      <c r="S429" s="21"/>
+      <c r="T429" s="21"/>
+      <c r="U429" s="21"/>
+      <c r="V429" s="21"/>
+      <c r="W429" s="21"/>
+      <c r="X429" s="22"/>
+      <c r="Y429" s="21"/>
+      <c r="Z429" s="18"/>
+      <c r="AA429" s="21"/>
+      <c r="AB429" s="21"/>
+      <c r="AC429" s="21"/>
+      <c r="AD429" s="21"/>
+      <c r="AE429" s="21"/>
+      <c r="AF429" s="21"/>
+      <c r="AG429" s="21"/>
+      <c r="AH429" s="18"/>
+      <c r="AI429" s="21"/>
+      <c r="AJ429" s="21"/>
+      <c r="AK429" s="21"/>
+      <c r="AL429" s="21"/>
+      <c r="AM429" s="21"/>
+      <c r="AN429" s="22"/>
+      <c r="AO429" s="21"/>
+      <c r="AP429" s="18"/>
+      <c r="AQ429" s="21"/>
+      <c r="AR429" s="21"/>
+      <c r="AS429" s="21"/>
+      <c r="AT429" s="21"/>
+      <c r="AU429" s="21"/>
+      <c r="AV429" s="21"/>
+      <c r="AW429" s="21"/>
+      <c r="AX429" s="8"/>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="8"/>
+      <c r="B430" s="18"/>
+      <c r="C430" s="21"/>
+      <c r="D430" s="21"/>
+      <c r="E430" s="21"/>
+      <c r="F430" s="21"/>
+      <c r="G430" s="21"/>
+      <c r="H430" s="21"/>
+      <c r="I430" s="21"/>
+      <c r="J430" s="18"/>
+      <c r="K430" s="21"/>
+      <c r="L430" s="21"/>
+      <c r="M430" s="21"/>
+      <c r="N430" s="21"/>
+      <c r="O430" s="21"/>
+      <c r="P430" s="21"/>
+      <c r="Q430" s="21"/>
+      <c r="R430" s="18"/>
+      <c r="S430" s="21"/>
+      <c r="T430" s="21"/>
+      <c r="U430" s="21"/>
+      <c r="V430" s="21"/>
+      <c r="W430" s="21"/>
+      <c r="X430" s="22"/>
+      <c r="Y430" s="21"/>
+      <c r="Z430" s="18"/>
+      <c r="AA430" s="21"/>
+      <c r="AB430" s="21"/>
+      <c r="AC430" s="21"/>
+      <c r="AD430" s="21"/>
+      <c r="AE430" s="21"/>
+      <c r="AF430" s="22"/>
+      <c r="AG430" s="21"/>
+      <c r="AH430" s="18"/>
+      <c r="AI430" s="21"/>
+      <c r="AJ430" s="21"/>
+      <c r="AK430" s="21"/>
+      <c r="AL430" s="21"/>
+      <c r="AM430" s="21"/>
+      <c r="AN430" s="22"/>
+      <c r="AO430" s="21"/>
+      <c r="AP430" s="18"/>
+      <c r="AQ430" s="21"/>
+      <c r="AR430" s="21"/>
+      <c r="AS430" s="21"/>
+      <c r="AT430" s="21"/>
+      <c r="AU430" s="21"/>
+      <c r="AV430" s="22"/>
+      <c r="AW430" s="21"/>
+      <c r="AX430" s="8"/>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="8"/>
+      <c r="B431" s="18"/>
+      <c r="C431" s="21"/>
+      <c r="D431" s="21"/>
+      <c r="E431" s="21"/>
+      <c r="F431" s="21"/>
+      <c r="G431" s="21"/>
+      <c r="H431" s="21"/>
+      <c r="I431" s="21"/>
+      <c r="J431" s="18"/>
+      <c r="K431" s="21"/>
+      <c r="L431" s="21"/>
+      <c r="M431" s="21"/>
+      <c r="N431" s="21"/>
+      <c r="O431" s="21"/>
+      <c r="P431" s="21"/>
+      <c r="Q431" s="21"/>
+      <c r="R431" s="18"/>
+      <c r="S431" s="21"/>
+      <c r="T431" s="21"/>
+      <c r="U431" s="21"/>
+      <c r="V431" s="21"/>
+      <c r="W431" s="21"/>
+      <c r="X431" s="21"/>
+      <c r="Y431" s="21"/>
+      <c r="Z431" s="18"/>
+      <c r="AA431" s="21"/>
+      <c r="AB431" s="21"/>
+      <c r="AC431" s="21"/>
+      <c r="AD431" s="21"/>
+      <c r="AE431" s="21"/>
+      <c r="AF431" s="21"/>
+      <c r="AG431" s="21"/>
+      <c r="AH431" s="18"/>
+      <c r="AI431" s="21"/>
+      <c r="AJ431" s="21"/>
+      <c r="AK431" s="21"/>
+      <c r="AL431" s="21"/>
+      <c r="AM431" s="21"/>
+      <c r="AN431" s="21"/>
+      <c r="AO431" s="21"/>
+      <c r="AP431" s="18"/>
+      <c r="AQ431" s="21"/>
+      <c r="AR431" s="21"/>
+      <c r="AS431" s="21"/>
+      <c r="AT431" s="21"/>
+      <c r="AU431" s="21"/>
+      <c r="AV431" s="21"/>
+      <c r="AW431" s="21"/>
+      <c r="AX431" s="8"/>
+    </row>
+    <row r="432" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="8"/>
+      <c r="B432" s="23"/>
+      <c r="C432" s="23"/>
+      <c r="D432" s="23"/>
+      <c r="E432" s="23"/>
+      <c r="F432" s="23"/>
+      <c r="G432" s="23"/>
+      <c r="H432" s="23"/>
+      <c r="I432" s="23"/>
+      <c r="J432" s="23"/>
+      <c r="K432" s="23"/>
+      <c r="L432" s="23"/>
+      <c r="M432" s="23"/>
+      <c r="N432" s="23"/>
+      <c r="O432" s="23"/>
+      <c r="P432" s="23"/>
+      <c r="Q432" s="23"/>
+      <c r="R432" s="23"/>
+      <c r="S432" s="23"/>
+      <c r="T432" s="23"/>
+      <c r="U432" s="23"/>
+      <c r="V432" s="23"/>
+      <c r="W432" s="23"/>
+      <c r="X432" s="23"/>
+      <c r="Y432" s="23"/>
+      <c r="Z432" s="23"/>
+      <c r="AA432" s="23"/>
+      <c r="AB432" s="23"/>
+      <c r="AC432" s="23"/>
+      <c r="AD432" s="23"/>
+      <c r="AE432" s="23"/>
+      <c r="AF432" s="23"/>
+      <c r="AG432" s="23"/>
+      <c r="AH432" s="23"/>
+      <c r="AI432" s="23"/>
+      <c r="AJ432" s="23"/>
+      <c r="AK432" s="23"/>
+      <c r="AL432" s="23"/>
+      <c r="AM432" s="23"/>
+      <c r="AN432" s="23"/>
+      <c r="AO432" s="23"/>
+      <c r="AP432" s="23"/>
+      <c r="AQ432" s="23"/>
+      <c r="AR432" s="23"/>
+      <c r="AS432" s="23"/>
+      <c r="AT432" s="23"/>
+      <c r="AU432" s="23"/>
+      <c r="AV432" s="23"/>
+      <c r="AW432" s="23"/>
+      <c r="AX432" s="8"/>
+    </row>
+    <row r="433" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="8"/>
+      <c r="B433" s="18"/>
+      <c r="C433" s="24"/>
+      <c r="D433" s="24"/>
+      <c r="E433" s="24"/>
+      <c r="F433" s="24"/>
+      <c r="G433" s="24"/>
+      <c r="H433" s="24"/>
+      <c r="I433" s="24"/>
+      <c r="J433" s="18"/>
+      <c r="K433" s="24"/>
+      <c r="L433" s="24"/>
+      <c r="M433" s="24"/>
+      <c r="N433" s="24"/>
+      <c r="O433" s="24"/>
+      <c r="P433" s="24"/>
+      <c r="Q433" s="24"/>
+      <c r="R433" s="18"/>
+      <c r="S433" s="24"/>
+      <c r="T433" s="24"/>
+      <c r="U433" s="24"/>
+      <c r="V433" s="24"/>
+      <c r="W433" s="24"/>
+      <c r="X433" s="24"/>
+      <c r="Y433" s="24"/>
+      <c r="Z433" s="18"/>
+      <c r="AA433" s="24"/>
+      <c r="AB433" s="24"/>
+      <c r="AC433" s="24"/>
+      <c r="AD433" s="24"/>
+      <c r="AE433" s="24"/>
+      <c r="AF433" s="24"/>
+      <c r="AG433" s="24"/>
+      <c r="AH433" s="18"/>
+      <c r="AI433" s="24"/>
+      <c r="AJ433" s="24"/>
+      <c r="AK433" s="24"/>
+      <c r="AL433" s="24"/>
+      <c r="AM433" s="24"/>
+      <c r="AN433" s="24"/>
+      <c r="AO433" s="24"/>
+      <c r="AP433" s="18"/>
+      <c r="AQ433" s="24"/>
+      <c r="AR433" s="24"/>
+      <c r="AS433" s="24"/>
+      <c r="AT433" s="24"/>
+      <c r="AU433" s="24"/>
+      <c r="AV433" s="24"/>
+      <c r="AW433" s="24"/>
+      <c r="AX433" s="8"/>
+    </row>
+    <row r="434" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="8"/>
+      <c r="B434" s="18"/>
+      <c r="C434" s="24"/>
+      <c r="D434" s="24"/>
+      <c r="E434" s="24"/>
+      <c r="F434" s="24"/>
+      <c r="G434" s="24"/>
+      <c r="H434" s="24"/>
+      <c r="I434" s="24"/>
+      <c r="J434" s="18"/>
+      <c r="K434" s="24"/>
+      <c r="L434" s="24"/>
+      <c r="M434" s="24"/>
+      <c r="N434" s="24"/>
+      <c r="O434" s="24"/>
+      <c r="P434" s="24"/>
+      <c r="Q434" s="24"/>
+      <c r="R434" s="18"/>
+      <c r="S434" s="24"/>
+      <c r="T434" s="24"/>
+      <c r="U434" s="24"/>
+      <c r="V434" s="24"/>
+      <c r="W434" s="24"/>
+      <c r="X434" s="24"/>
+      <c r="Y434" s="24"/>
+      <c r="Z434" s="18"/>
+      <c r="AA434" s="24"/>
+      <c r="AB434" s="24"/>
+      <c r="AC434" s="24"/>
+      <c r="AD434" s="24"/>
+      <c r="AE434" s="24"/>
+      <c r="AF434" s="24"/>
+      <c r="AG434" s="24"/>
+      <c r="AH434" s="18"/>
+      <c r="AI434" s="24"/>
+      <c r="AJ434" s="24"/>
+      <c r="AK434" s="24"/>
+      <c r="AL434" s="24"/>
+      <c r="AM434" s="24"/>
+      <c r="AN434" s="24"/>
+      <c r="AO434" s="24"/>
+      <c r="AP434" s="18"/>
+      <c r="AQ434" s="24"/>
+      <c r="AR434" s="24"/>
+      <c r="AS434" s="24"/>
+      <c r="AT434" s="24"/>
+      <c r="AU434" s="24"/>
+      <c r="AV434" s="24"/>
+      <c r="AW434" s="24"/>
+      <c r="AX434" s="8"/>
+    </row>
+    <row r="435" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="18"/>
+      <c r="C435" s="19"/>
+      <c r="D435" s="19"/>
+      <c r="E435" s="19"/>
+      <c r="F435" s="19"/>
+      <c r="G435" s="19"/>
+      <c r="H435" s="19"/>
+      <c r="I435" s="19"/>
+      <c r="J435" s="18"/>
+      <c r="K435" s="19"/>
+      <c r="L435" s="19"/>
+      <c r="M435" s="19"/>
+      <c r="N435" s="19"/>
+      <c r="O435" s="19"/>
+      <c r="P435" s="19"/>
+      <c r="Q435" s="19"/>
+      <c r="R435" s="18"/>
+      <c r="S435" s="19"/>
+      <c r="T435" s="19"/>
+      <c r="U435" s="19"/>
+      <c r="V435" s="19"/>
+      <c r="W435" s="19"/>
+      <c r="X435" s="19"/>
+      <c r="Y435" s="19"/>
+      <c r="Z435" s="18"/>
+      <c r="AA435" s="19"/>
+      <c r="AB435" s="19"/>
+      <c r="AC435" s="19"/>
+      <c r="AD435" s="19"/>
+      <c r="AE435" s="19"/>
+      <c r="AF435" s="19"/>
+      <c r="AG435" s="19"/>
+      <c r="AH435" s="18"/>
+      <c r="AI435" s="19"/>
+      <c r="AJ435" s="19"/>
+      <c r="AK435" s="19"/>
+      <c r="AL435" s="19"/>
+      <c r="AM435" s="19"/>
+      <c r="AN435" s="19"/>
+      <c r="AO435" s="19"/>
+      <c r="AP435" s="18"/>
+      <c r="AQ435" s="19"/>
+      <c r="AR435" s="19"/>
+      <c r="AS435" s="19"/>
+      <c r="AT435" s="19"/>
+      <c r="AU435" s="19"/>
+      <c r="AV435" s="19"/>
+      <c r="AW435" s="19"/>
+      <c r="AX435" s="8"/>
+      <c r="AY435" s="1"/>
+      <c r="AZ435" s="1"/>
+      <c r="BA435" s="1"/>
+      <c r="BB435" s="1"/>
+      <c r="BC435" s="1"/>
+      <c r="BD435" s="1"/>
+      <c r="BE435" s="1"/>
+      <c r="BF435" s="1"/>
+      <c r="BG435" s="1"/>
+      <c r="BH435" s="1"/>
+      <c r="BI435" s="1"/>
+      <c r="BJ435" s="1"/>
+      <c r="BK435" s="1"/>
+      <c r="BL435" s="1"/>
+      <c r="BM435" s="1"/>
+      <c r="BN435" s="1"/>
+      <c r="BO435" s="1"/>
+      <c r="BP435" s="1"/>
+      <c r="BQ435" s="1"/>
+      <c r="BR435" s="1"/>
+      <c r="BS435" s="1"/>
+      <c r="BT435" s="1"/>
+      <c r="BU435" s="1"/>
+      <c r="BV435" s="1"/>
+      <c r="BW435" s="1"/>
+      <c r="BX435" s="1"/>
+      <c r="BY435" s="1"/>
+      <c r="BZ435" s="1"/>
+      <c r="CA435" s="1"/>
+      <c r="CB435" s="1"/>
+      <c r="CC435" s="1"/>
+      <c r="CD435" s="1"/>
+      <c r="CE435" s="1"/>
+      <c r="CF435" s="1"/>
+      <c r="CG435" s="1"/>
+      <c r="CH435" s="1"/>
+      <c r="CI435" s="1"/>
+      <c r="CJ435" s="1"/>
+      <c r="CK435" s="1"/>
+      <c r="CL435" s="1"/>
+      <c r="CM435" s="1"/>
+      <c r="CN435" s="1"/>
+      <c r="CO435" s="1"/>
+      <c r="CP435" s="1"/>
+      <c r="CQ435" s="1"/>
+      <c r="CR435" s="1"/>
+      <c r="CS435" s="1"/>
+      <c r="CT435" s="1"/>
+      <c r="CU435" s="1"/>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="8"/>
+      <c r="B436" s="18"/>
+      <c r="C436" s="21"/>
+      <c r="D436" s="21"/>
+      <c r="E436" s="21"/>
+      <c r="F436" s="21"/>
+      <c r="G436" s="21"/>
+      <c r="H436" s="22"/>
+      <c r="I436" s="21"/>
+      <c r="J436" s="18"/>
+      <c r="K436" s="21"/>
+      <c r="L436" s="21"/>
+      <c r="M436" s="21"/>
+      <c r="N436" s="21"/>
+      <c r="O436" s="21"/>
+      <c r="P436" s="22"/>
+      <c r="Q436" s="21"/>
+      <c r="R436" s="18"/>
+      <c r="S436" s="21"/>
+      <c r="T436" s="21"/>
+      <c r="U436" s="21"/>
+      <c r="V436" s="22"/>
+      <c r="W436" s="21"/>
+      <c r="X436" s="22"/>
+      <c r="Y436" s="21"/>
+      <c r="Z436" s="18"/>
+      <c r="AA436" s="21"/>
+      <c r="AB436" s="21"/>
+      <c r="AC436" s="21"/>
+      <c r="AD436" s="21"/>
+      <c r="AE436" s="21"/>
+      <c r="AF436" s="21"/>
+      <c r="AG436" s="21"/>
+      <c r="AH436" s="18"/>
+      <c r="AI436" s="21"/>
+      <c r="AJ436" s="21"/>
+      <c r="AK436" s="21"/>
+      <c r="AL436" s="22"/>
+      <c r="AM436" s="21"/>
+      <c r="AN436" s="22"/>
+      <c r="AO436" s="21"/>
+      <c r="AP436" s="18"/>
+      <c r="AQ436" s="21"/>
+      <c r="AR436" s="21"/>
+      <c r="AS436" s="21"/>
+      <c r="AT436" s="21"/>
+      <c r="AU436" s="21"/>
+      <c r="AV436" s="21"/>
+      <c r="AW436" s="21"/>
+      <c r="AX436" s="8"/>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="8"/>
+      <c r="B437" s="18"/>
+      <c r="C437" s="21"/>
+      <c r="D437" s="21"/>
+      <c r="E437" s="21"/>
+      <c r="F437" s="21"/>
+      <c r="G437" s="21"/>
+      <c r="H437" s="21"/>
+      <c r="I437" s="21"/>
+      <c r="J437" s="18"/>
+      <c r="K437" s="21"/>
+      <c r="L437" s="21"/>
+      <c r="M437" s="21"/>
+      <c r="N437" s="21"/>
+      <c r="O437" s="21"/>
+      <c r="P437" s="21"/>
+      <c r="Q437" s="21"/>
+      <c r="R437" s="18"/>
+      <c r="S437" s="21"/>
+      <c r="T437" s="21"/>
+      <c r="U437" s="21"/>
+      <c r="V437" s="21"/>
+      <c r="W437" s="21"/>
+      <c r="X437" s="22"/>
+      <c r="Y437" s="21"/>
+      <c r="Z437" s="18"/>
+      <c r="AA437" s="21"/>
+      <c r="AB437" s="21"/>
+      <c r="AC437" s="21"/>
+      <c r="AD437" s="21"/>
+      <c r="AE437" s="21"/>
+      <c r="AF437" s="21"/>
+      <c r="AG437" s="21"/>
+      <c r="AH437" s="18"/>
+      <c r="AI437" s="21"/>
+      <c r="AJ437" s="21"/>
+      <c r="AK437" s="21"/>
+      <c r="AL437" s="21"/>
+      <c r="AM437" s="21"/>
+      <c r="AN437" s="22"/>
+      <c r="AO437" s="21"/>
+      <c r="AP437" s="18"/>
+      <c r="AQ437" s="21"/>
+      <c r="AR437" s="21"/>
+      <c r="AS437" s="21"/>
+      <c r="AT437" s="21"/>
+      <c r="AU437" s="21"/>
+      <c r="AV437" s="21"/>
+      <c r="AW437" s="21"/>
+      <c r="AX437" s="8"/>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="8"/>
+      <c r="B438" s="18"/>
+      <c r="C438" s="21"/>
+      <c r="D438" s="21"/>
+      <c r="E438" s="21"/>
+      <c r="F438" s="21"/>
+      <c r="G438" s="21"/>
+      <c r="H438" s="21"/>
+      <c r="I438" s="21"/>
+      <c r="J438" s="18"/>
+      <c r="K438" s="21"/>
+      <c r="L438" s="21"/>
+      <c r="M438" s="21"/>
+      <c r="N438" s="21"/>
+      <c r="O438" s="21"/>
+      <c r="P438" s="21"/>
+      <c r="Q438" s="21"/>
+      <c r="R438" s="18"/>
+      <c r="S438" s="21"/>
+      <c r="T438" s="21"/>
+      <c r="U438" s="21"/>
+      <c r="V438" s="21"/>
+      <c r="W438" s="21"/>
+      <c r="X438" s="22"/>
+      <c r="Y438" s="21"/>
+      <c r="Z438" s="18"/>
+      <c r="AA438" s="21"/>
+      <c r="AB438" s="21"/>
+      <c r="AC438" s="21"/>
+      <c r="AD438" s="21"/>
+      <c r="AE438" s="21"/>
+      <c r="AF438" s="22"/>
+      <c r="AG438" s="21"/>
+      <c r="AH438" s="18"/>
+      <c r="AI438" s="21"/>
+      <c r="AJ438" s="21"/>
+      <c r="AK438" s="21"/>
+      <c r="AL438" s="21"/>
+      <c r="AM438" s="21"/>
+      <c r="AN438" s="22"/>
+      <c r="AO438" s="21"/>
+      <c r="AP438" s="18"/>
+      <c r="AQ438" s="21"/>
+      <c r="AR438" s="21"/>
+      <c r="AS438" s="21"/>
+      <c r="AT438" s="21"/>
+      <c r="AU438" s="21"/>
+      <c r="AV438" s="22"/>
+      <c r="AW438" s="21"/>
+      <c r="AX438" s="8"/>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="8"/>
+      <c r="B439" s="18"/>
+      <c r="C439" s="21"/>
+      <c r="D439" s="21"/>
+      <c r="E439" s="21"/>
+      <c r="F439" s="21"/>
+      <c r="G439" s="21"/>
+      <c r="H439" s="21"/>
+      <c r="I439" s="21"/>
+      <c r="J439" s="18"/>
+      <c r="K439" s="21"/>
+      <c r="L439" s="21"/>
+      <c r="M439" s="21"/>
+      <c r="N439" s="21"/>
+      <c r="O439" s="21"/>
+      <c r="P439" s="21"/>
+      <c r="Q439" s="21"/>
+      <c r="R439" s="18"/>
+      <c r="S439" s="21"/>
+      <c r="T439" s="21"/>
+      <c r="U439" s="21"/>
+      <c r="V439" s="21"/>
+      <c r="W439" s="21"/>
+      <c r="X439" s="21"/>
+      <c r="Y439" s="21"/>
+      <c r="Z439" s="18"/>
+      <c r="AA439" s="21"/>
+      <c r="AB439" s="21"/>
+      <c r="AC439" s="21"/>
+      <c r="AD439" s="21"/>
+      <c r="AE439" s="21"/>
+      <c r="AF439" s="21"/>
+      <c r="AG439" s="21"/>
+      <c r="AH439" s="18"/>
+      <c r="AI439" s="21"/>
+      <c r="AJ439" s="21"/>
+      <c r="AK439" s="21"/>
+      <c r="AL439" s="21"/>
+      <c r="AM439" s="21"/>
+      <c r="AN439" s="21"/>
+      <c r="AO439" s="21"/>
+      <c r="AP439" s="18"/>
+      <c r="AQ439" s="21"/>
+      <c r="AR439" s="21"/>
+      <c r="AS439" s="21"/>
+      <c r="AT439" s="21"/>
+      <c r="AU439" s="21"/>
+      <c r="AV439" s="21"/>
+      <c r="AW439" s="21"/>
+      <c r="AX439" s="8"/>
+    </row>
+    <row r="440" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="8"/>
+      <c r="B440" s="23"/>
+      <c r="C440" s="23"/>
+      <c r="D440" s="23"/>
+      <c r="E440" s="23"/>
+      <c r="F440" s="23"/>
+      <c r="G440" s="23"/>
+      <c r="H440" s="23"/>
+      <c r="I440" s="23"/>
+      <c r="J440" s="23"/>
+      <c r="K440" s="23"/>
+      <c r="L440" s="23"/>
+      <c r="M440" s="23"/>
+      <c r="N440" s="23"/>
+      <c r="O440" s="23"/>
+      <c r="P440" s="23"/>
+      <c r="Q440" s="23"/>
+      <c r="R440" s="23"/>
+      <c r="S440" s="23"/>
+      <c r="T440" s="23"/>
+      <c r="U440" s="23"/>
+      <c r="V440" s="23"/>
+      <c r="W440" s="23"/>
+      <c r="X440" s="23"/>
+      <c r="Y440" s="23"/>
+      <c r="Z440" s="23"/>
+      <c r="AA440" s="23"/>
+      <c r="AB440" s="23"/>
+      <c r="AC440" s="23"/>
+      <c r="AD440" s="23"/>
+      <c r="AE440" s="23"/>
+      <c r="AF440" s="23"/>
+      <c r="AG440" s="23"/>
+      <c r="AH440" s="23"/>
+      <c r="AI440" s="23"/>
+      <c r="AJ440" s="23"/>
+      <c r="AK440" s="23"/>
+      <c r="AL440" s="23"/>
+      <c r="AM440" s="23"/>
+      <c r="AN440" s="23"/>
+      <c r="AO440" s="23"/>
+      <c r="AP440" s="23"/>
+      <c r="AQ440" s="23"/>
+      <c r="AR440" s="23"/>
+      <c r="AS440" s="23"/>
+      <c r="AT440" s="23"/>
+      <c r="AU440" s="23"/>
+      <c r="AV440" s="23"/>
+      <c r="AW440" s="23"/>
+      <c r="AX440" s="8"/>
+    </row>
+    <row r="441" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="8"/>
+      <c r="B441" s="18"/>
+      <c r="C441" s="24"/>
+      <c r="D441" s="24"/>
+      <c r="E441" s="24"/>
+      <c r="F441" s="24"/>
+      <c r="G441" s="24"/>
+      <c r="H441" s="24"/>
+      <c r="I441" s="24"/>
+      <c r="J441" s="18"/>
+      <c r="K441" s="24"/>
+      <c r="L441" s="24"/>
+      <c r="M441" s="24"/>
+      <c r="N441" s="24"/>
+      <c r="O441" s="24"/>
+      <c r="P441" s="24"/>
+      <c r="Q441" s="24"/>
+      <c r="R441" s="18"/>
+      <c r="S441" s="24"/>
+      <c r="T441" s="24"/>
+      <c r="U441" s="24"/>
+      <c r="V441" s="24"/>
+      <c r="W441" s="24"/>
+      <c r="X441" s="24"/>
+      <c r="Y441" s="24"/>
+      <c r="Z441" s="18"/>
+      <c r="AA441" s="24"/>
+      <c r="AB441" s="24"/>
+      <c r="AC441" s="24"/>
+      <c r="AD441" s="24"/>
+      <c r="AE441" s="24"/>
+      <c r="AF441" s="24"/>
+      <c r="AG441" s="24"/>
+      <c r="AH441" s="18"/>
+      <c r="AI441" s="24"/>
+      <c r="AJ441" s="24"/>
+      <c r="AK441" s="24"/>
+      <c r="AL441" s="24"/>
+      <c r="AM441" s="24"/>
+      <c r="AN441" s="24"/>
+      <c r="AO441" s="24"/>
+      <c r="AP441" s="18"/>
+      <c r="AQ441" s="24"/>
+      <c r="AR441" s="24"/>
+      <c r="AS441" s="24"/>
+      <c r="AT441" s="24"/>
+      <c r="AU441" s="24"/>
+      <c r="AV441" s="24"/>
+      <c r="AW441" s="24"/>
+      <c r="AX441" s="8"/>
+    </row>
+    <row r="442" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="8"/>
+      <c r="B442" s="18"/>
+      <c r="C442" s="24"/>
+      <c r="D442" s="24"/>
+      <c r="E442" s="24"/>
+      <c r="F442" s="24"/>
+      <c r="G442" s="24"/>
+      <c r="H442" s="24"/>
+      <c r="I442" s="24"/>
+      <c r="J442" s="18"/>
+      <c r="K442" s="24"/>
+      <c r="L442" s="24"/>
+      <c r="M442" s="24"/>
+      <c r="N442" s="24"/>
+      <c r="O442" s="24"/>
+      <c r="P442" s="24"/>
+      <c r="Q442" s="24"/>
+      <c r="R442" s="18"/>
+      <c r="S442" s="24"/>
+      <c r="T442" s="24"/>
+      <c r="U442" s="24"/>
+      <c r="V442" s="24"/>
+      <c r="W442" s="24"/>
+      <c r="X442" s="24"/>
+      <c r="Y442" s="24"/>
+      <c r="Z442" s="18"/>
+      <c r="AA442" s="24"/>
+      <c r="AB442" s="24"/>
+      <c r="AC442" s="24"/>
+      <c r="AD442" s="24"/>
+      <c r="AE442" s="24"/>
+      <c r="AF442" s="24"/>
+      <c r="AG442" s="24"/>
+      <c r="AH442" s="18"/>
+      <c r="AI442" s="24"/>
+      <c r="AJ442" s="24"/>
+      <c r="AK442" s="24"/>
+      <c r="AL442" s="24"/>
+      <c r="AM442" s="24"/>
+      <c r="AN442" s="24"/>
+      <c r="AO442" s="24"/>
+      <c r="AP442" s="18"/>
+      <c r="AQ442" s="24"/>
+      <c r="AR442" s="24"/>
+      <c r="AS442" s="24"/>
+      <c r="AT442" s="24"/>
+      <c r="AU442" s="24"/>
+      <c r="AV442" s="24"/>
+      <c r="AW442" s="24"/>
+      <c r="AX442" s="8"/>
+    </row>
+    <row r="443" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B443" s="18"/>
+      <c r="C443" s="19"/>
+      <c r="D443" s="19"/>
+      <c r="E443" s="19"/>
+      <c r="F443" s="19"/>
+      <c r="G443" s="19"/>
+      <c r="H443" s="19"/>
+      <c r="I443" s="19"/>
+      <c r="J443" s="18"/>
+      <c r="K443" s="19"/>
+      <c r="L443" s="19"/>
+      <c r="M443" s="19"/>
+      <c r="N443" s="19"/>
+      <c r="O443" s="19"/>
+      <c r="P443" s="19"/>
+      <c r="Q443" s="19"/>
+      <c r="R443" s="18"/>
+      <c r="S443" s="19"/>
+      <c r="T443" s="19"/>
+      <c r="U443" s="19"/>
+      <c r="V443" s="19"/>
+      <c r="W443" s="19"/>
+      <c r="X443" s="19"/>
+      <c r="Y443" s="19"/>
+      <c r="Z443" s="18"/>
+      <c r="AA443" s="19"/>
+      <c r="AB443" s="19"/>
+      <c r="AC443" s="19"/>
+      <c r="AD443" s="19"/>
+      <c r="AE443" s="19"/>
+      <c r="AF443" s="19"/>
+      <c r="AG443" s="19"/>
+      <c r="AH443" s="18"/>
+      <c r="AI443" s="19"/>
+      <c r="AJ443" s="19"/>
+      <c r="AK443" s="19"/>
+      <c r="AL443" s="19"/>
+      <c r="AM443" s="19"/>
+      <c r="AN443" s="19"/>
+      <c r="AO443" s="19"/>
+      <c r="AP443" s="18"/>
+      <c r="AQ443" s="19"/>
+      <c r="AR443" s="19"/>
+      <c r="AS443" s="19"/>
+      <c r="AT443" s="19"/>
+      <c r="AU443" s="19"/>
+      <c r="AV443" s="19"/>
+      <c r="AW443" s="19"/>
+      <c r="AX443" s="8"/>
+      <c r="AY443" s="1"/>
+      <c r="AZ443" s="1"/>
+      <c r="BA443" s="1"/>
+      <c r="BB443" s="1"/>
+      <c r="BC443" s="1"/>
+      <c r="BD443" s="1"/>
+      <c r="BE443" s="1"/>
+      <c r="BF443" s="1"/>
+      <c r="BG443" s="1"/>
+      <c r="BH443" s="1"/>
+      <c r="BI443" s="1"/>
+      <c r="BJ443" s="1"/>
+      <c r="BK443" s="1"/>
+      <c r="BL443" s="1"/>
+      <c r="BM443" s="1"/>
+      <c r="BN443" s="1"/>
+      <c r="BO443" s="1"/>
+      <c r="BP443" s="1"/>
+      <c r="BQ443" s="1"/>
+      <c r="BR443" s="1"/>
+      <c r="BS443" s="1"/>
+      <c r="BT443" s="1"/>
+      <c r="BU443" s="1"/>
+      <c r="BV443" s="1"/>
+      <c r="BW443" s="1"/>
+      <c r="BX443" s="1"/>
+      <c r="BY443" s="1"/>
+      <c r="BZ443" s="1"/>
+      <c r="CA443" s="1"/>
+      <c r="CB443" s="1"/>
+      <c r="CC443" s="1"/>
+      <c r="CD443" s="1"/>
+      <c r="CE443" s="1"/>
+      <c r="CF443" s="1"/>
+      <c r="CG443" s="1"/>
+      <c r="CH443" s="1"/>
+      <c r="CI443" s="1"/>
+      <c r="CJ443" s="1"/>
+      <c r="CK443" s="1"/>
+      <c r="CL443" s="1"/>
+      <c r="CM443" s="1"/>
+      <c r="CN443" s="1"/>
+      <c r="CO443" s="1"/>
+      <c r="CP443" s="1"/>
+      <c r="CQ443" s="1"/>
+      <c r="CR443" s="1"/>
+      <c r="CS443" s="1"/>
+      <c r="CT443" s="1"/>
+      <c r="CU443" s="1"/>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="8"/>
+      <c r="B444" s="18"/>
+      <c r="C444" s="21"/>
+      <c r="D444" s="21"/>
+      <c r="E444" s="21"/>
+      <c r="F444" s="21"/>
+      <c r="G444" s="21"/>
+      <c r="H444" s="22"/>
+      <c r="I444" s="21"/>
+      <c r="J444" s="18"/>
+      <c r="K444" s="21"/>
+      <c r="L444" s="21"/>
+      <c r="M444" s="21"/>
+      <c r="N444" s="21"/>
+      <c r="O444" s="21"/>
+      <c r="P444" s="22"/>
+      <c r="Q444" s="21"/>
+      <c r="R444" s="18"/>
+      <c r="S444" s="21"/>
+      <c r="T444" s="21"/>
+      <c r="U444" s="21"/>
+      <c r="V444" s="22"/>
+      <c r="W444" s="21"/>
+      <c r="X444" s="22"/>
+      <c r="Y444" s="21"/>
+      <c r="Z444" s="18"/>
+      <c r="AA444" s="21"/>
+      <c r="AB444" s="21"/>
+      <c r="AC444" s="21"/>
+      <c r="AD444" s="21"/>
+      <c r="AE444" s="21"/>
+      <c r="AF444" s="21"/>
+      <c r="AG444" s="21"/>
+      <c r="AH444" s="18"/>
+      <c r="AI444" s="21"/>
+      <c r="AJ444" s="21"/>
+      <c r="AK444" s="21"/>
+      <c r="AL444" s="22"/>
+      <c r="AM444" s="21"/>
+      <c r="AN444" s="22"/>
+      <c r="AO444" s="21"/>
+      <c r="AP444" s="18"/>
+      <c r="AQ444" s="21"/>
+      <c r="AR444" s="21"/>
+      <c r="AS444" s="21"/>
+      <c r="AT444" s="21"/>
+      <c r="AU444" s="21"/>
+      <c r="AV444" s="21"/>
+      <c r="AW444" s="21"/>
+      <c r="AX444" s="8"/>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="8"/>
+      <c r="B445" s="18"/>
+      <c r="C445" s="21"/>
+      <c r="D445" s="21"/>
+      <c r="E445" s="21"/>
+      <c r="F445" s="21"/>
+      <c r="G445" s="21"/>
+      <c r="H445" s="21"/>
+      <c r="I445" s="21"/>
+      <c r="J445" s="18"/>
+      <c r="K445" s="21"/>
+      <c r="L445" s="21"/>
+      <c r="M445" s="21"/>
+      <c r="N445" s="21"/>
+      <c r="O445" s="21"/>
+      <c r="P445" s="21"/>
+      <c r="Q445" s="21"/>
+      <c r="R445" s="18"/>
+      <c r="S445" s="21"/>
+      <c r="T445" s="21"/>
+      <c r="U445" s="21"/>
+      <c r="V445" s="21"/>
+      <c r="W445" s="21"/>
+      <c r="X445" s="22"/>
+      <c r="Y445" s="21"/>
+      <c r="Z445" s="18"/>
+      <c r="AA445" s="21"/>
+      <c r="AB445" s="21"/>
+      <c r="AC445" s="21"/>
+      <c r="AD445" s="21"/>
+      <c r="AE445" s="21"/>
+      <c r="AF445" s="21"/>
+      <c r="AG445" s="21"/>
+      <c r="AH445" s="18"/>
+      <c r="AI445" s="21"/>
+      <c r="AJ445" s="21"/>
+      <c r="AK445" s="21"/>
+      <c r="AL445" s="21"/>
+      <c r="AM445" s="21"/>
+      <c r="AN445" s="22"/>
+      <c r="AO445" s="21"/>
+      <c r="AP445" s="18"/>
+      <c r="AQ445" s="21"/>
+      <c r="AR445" s="21"/>
+      <c r="AS445" s="21"/>
+      <c r="AT445" s="21"/>
+      <c r="AU445" s="21"/>
+      <c r="AV445" s="21"/>
+      <c r="AW445" s="21"/>
+      <c r="AX445" s="8"/>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="8"/>
+      <c r="B446" s="18"/>
+      <c r="C446" s="21"/>
+      <c r="D446" s="21"/>
+      <c r="E446" s="21"/>
+      <c r="F446" s="21"/>
+      <c r="G446" s="21"/>
+      <c r="H446" s="21"/>
+      <c r="I446" s="21"/>
+      <c r="J446" s="18"/>
+      <c r="K446" s="21"/>
+      <c r="L446" s="21"/>
+      <c r="M446" s="21"/>
+      <c r="N446" s="21"/>
+      <c r="O446" s="21"/>
+      <c r="P446" s="21"/>
+      <c r="Q446" s="21"/>
+      <c r="R446" s="18"/>
+      <c r="S446" s="21"/>
+      <c r="T446" s="21"/>
+      <c r="U446" s="21"/>
+      <c r="V446" s="21"/>
+      <c r="W446" s="21"/>
+      <c r="X446" s="22"/>
+      <c r="Y446" s="21"/>
+      <c r="Z446" s="18"/>
+      <c r="AA446" s="21"/>
+      <c r="AB446" s="21"/>
+      <c r="AC446" s="21"/>
+      <c r="AD446" s="21"/>
+      <c r="AE446" s="21"/>
+      <c r="AF446" s="22"/>
+      <c r="AG446" s="21"/>
+      <c r="AH446" s="18"/>
+      <c r="AI446" s="21"/>
+      <c r="AJ446" s="21"/>
+      <c r="AK446" s="21"/>
+      <c r="AL446" s="21"/>
+      <c r="AM446" s="21"/>
+      <c r="AN446" s="22"/>
+      <c r="AO446" s="21"/>
+      <c r="AP446" s="18"/>
+      <c r="AQ446" s="21"/>
+      <c r="AR446" s="21"/>
+      <c r="AS446" s="21"/>
+      <c r="AT446" s="21"/>
+      <c r="AU446" s="21"/>
+      <c r="AV446" s="22"/>
+      <c r="AW446" s="21"/>
+      <c r="AX446" s="8"/>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="8"/>
+      <c r="B447" s="18"/>
+      <c r="C447" s="21"/>
+      <c r="D447" s="21"/>
+      <c r="E447" s="21"/>
+      <c r="F447" s="21"/>
+      <c r="G447" s="21"/>
+      <c r="H447" s="21"/>
+      <c r="I447" s="21"/>
+      <c r="J447" s="18"/>
+      <c r="K447" s="21"/>
+      <c r="L447" s="21"/>
+      <c r="M447" s="21"/>
+      <c r="N447" s="21"/>
+      <c r="O447" s="21"/>
+      <c r="P447" s="21"/>
+      <c r="Q447" s="21"/>
+      <c r="R447" s="18"/>
+      <c r="S447" s="21"/>
+      <c r="T447" s="21"/>
+      <c r="U447" s="21"/>
+      <c r="V447" s="21"/>
+      <c r="W447" s="21"/>
+      <c r="X447" s="21"/>
+      <c r="Y447" s="21"/>
+      <c r="Z447" s="18"/>
+      <c r="AA447" s="21"/>
+      <c r="AB447" s="21"/>
+      <c r="AC447" s="21"/>
+      <c r="AD447" s="21"/>
+      <c r="AE447" s="21"/>
+      <c r="AF447" s="21"/>
+      <c r="AG447" s="21"/>
+      <c r="AH447" s="18"/>
+      <c r="AI447" s="21"/>
+      <c r="AJ447" s="21"/>
+      <c r="AK447" s="21"/>
+      <c r="AL447" s="21"/>
+      <c r="AM447" s="21"/>
+      <c r="AN447" s="21"/>
+      <c r="AO447" s="21"/>
+      <c r="AP447" s="18"/>
+      <c r="AQ447" s="21"/>
+      <c r="AR447" s="21"/>
+      <c r="AS447" s="21"/>
+      <c r="AT447" s="21"/>
+      <c r="AU447" s="21"/>
+      <c r="AV447" s="21"/>
+      <c r="AW447" s="21"/>
+      <c r="AX447" s="8"/>
+    </row>
+    <row r="448" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="8"/>
+      <c r="B448" s="23"/>
+      <c r="C448" s="23"/>
+      <c r="D448" s="23"/>
+      <c r="E448" s="23"/>
+      <c r="F448" s="23"/>
+      <c r="G448" s="23"/>
+      <c r="H448" s="23"/>
+      <c r="I448" s="23"/>
+      <c r="J448" s="23"/>
+      <c r="K448" s="23"/>
+      <c r="L448" s="23"/>
+      <c r="M448" s="23"/>
+      <c r="N448" s="23"/>
+      <c r="O448" s="23"/>
+      <c r="P448" s="23"/>
+      <c r="Q448" s="23"/>
+      <c r="R448" s="23"/>
+      <c r="S448" s="23"/>
+      <c r="T448" s="23"/>
+      <c r="U448" s="23"/>
+      <c r="V448" s="23"/>
+      <c r="W448" s="23"/>
+      <c r="X448" s="23"/>
+      <c r="Y448" s="23"/>
+      <c r="Z448" s="23"/>
+      <c r="AA448" s="23"/>
+      <c r="AB448" s="23"/>
+      <c r="AC448" s="23"/>
+      <c r="AD448" s="23"/>
+      <c r="AE448" s="23"/>
+      <c r="AF448" s="23"/>
+      <c r="AG448" s="23"/>
+      <c r="AH448" s="23"/>
+      <c r="AI448" s="23"/>
+      <c r="AJ448" s="23"/>
+      <c r="AK448" s="23"/>
+      <c r="AL448" s="23"/>
+      <c r="AM448" s="23"/>
+      <c r="AN448" s="23"/>
+      <c r="AO448" s="23"/>
+      <c r="AP448" s="23"/>
+      <c r="AQ448" s="23"/>
+      <c r="AR448" s="23"/>
+      <c r="AS448" s="23"/>
+      <c r="AT448" s="23"/>
+      <c r="AU448" s="23"/>
+      <c r="AV448" s="23"/>
+      <c r="AW448" s="23"/>
+      <c r="AX448" s="8"/>
+    </row>
+    <row r="449" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="8"/>
+      <c r="B449" s="18"/>
+      <c r="C449" s="24"/>
+      <c r="D449" s="24"/>
+      <c r="E449" s="24"/>
+      <c r="F449" s="24"/>
+      <c r="G449" s="24"/>
+      <c r="H449" s="24"/>
+      <c r="I449" s="24"/>
+      <c r="J449" s="18"/>
+      <c r="K449" s="24"/>
+      <c r="L449" s="24"/>
+      <c r="M449" s="24"/>
+      <c r="N449" s="24"/>
+      <c r="O449" s="24"/>
+      <c r="P449" s="24"/>
+      <c r="Q449" s="24"/>
+      <c r="R449" s="18"/>
+      <c r="S449" s="24"/>
+      <c r="T449" s="24"/>
+      <c r="U449" s="24"/>
+      <c r="V449" s="24"/>
+      <c r="W449" s="24"/>
+      <c r="X449" s="24"/>
+      <c r="Y449" s="24"/>
+      <c r="Z449" s="18"/>
+      <c r="AA449" s="24"/>
+      <c r="AB449" s="24"/>
+      <c r="AC449" s="24"/>
+      <c r="AD449" s="24"/>
+      <c r="AE449" s="24"/>
+      <c r="AF449" s="24"/>
+      <c r="AG449" s="24"/>
+      <c r="AH449" s="18"/>
+      <c r="AI449" s="24"/>
+      <c r="AJ449" s="24"/>
+      <c r="AK449" s="24"/>
+      <c r="AL449" s="24"/>
+      <c r="AM449" s="24"/>
+      <c r="AN449" s="24"/>
+      <c r="AO449" s="24"/>
+      <c r="AP449" s="18"/>
+      <c r="AQ449" s="24"/>
+      <c r="AR449" s="24"/>
+      <c r="AS449" s="24"/>
+      <c r="AT449" s="24"/>
+      <c r="AU449" s="24"/>
+      <c r="AV449" s="24"/>
+      <c r="AW449" s="24"/>
+      <c r="AX449" s="8"/>
+    </row>
+    <row r="450" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="8"/>
+      <c r="B450" s="18"/>
+      <c r="C450" s="24"/>
+      <c r="D450" s="24"/>
+      <c r="E450" s="24"/>
+      <c r="F450" s="24"/>
+      <c r="G450" s="24"/>
+      <c r="H450" s="24"/>
+      <c r="I450" s="24"/>
+      <c r="J450" s="18"/>
+      <c r="K450" s="24"/>
+      <c r="L450" s="24"/>
+      <c r="M450" s="24"/>
+      <c r="N450" s="24"/>
+      <c r="O450" s="24"/>
+      <c r="P450" s="24"/>
+      <c r="Q450" s="24"/>
+      <c r="R450" s="18"/>
+      <c r="S450" s="24"/>
+      <c r="T450" s="24"/>
+      <c r="U450" s="24"/>
+      <c r="V450" s="24"/>
+      <c r="W450" s="24"/>
+      <c r="X450" s="24"/>
+      <c r="Y450" s="24"/>
+      <c r="Z450" s="18"/>
+      <c r="AA450" s="24"/>
+      <c r="AB450" s="24"/>
+      <c r="AC450" s="24"/>
+      <c r="AD450" s="24"/>
+      <c r="AE450" s="24"/>
+      <c r="AF450" s="24"/>
+      <c r="AG450" s="24"/>
+      <c r="AH450" s="18"/>
+      <c r="AI450" s="24"/>
+      <c r="AJ450" s="24"/>
+      <c r="AK450" s="24"/>
+      <c r="AL450" s="24"/>
+      <c r="AM450" s="24"/>
+      <c r="AN450" s="24"/>
+      <c r="AO450" s="24"/>
+      <c r="AP450" s="18"/>
+      <c r="AQ450" s="24"/>
+      <c r="AR450" s="24"/>
+      <c r="AS450" s="24"/>
+      <c r="AT450" s="24"/>
+      <c r="AU450" s="24"/>
+      <c r="AV450" s="24"/>
+      <c r="AW450" s="24"/>
+      <c r="AX450" s="8"/>
+    </row>
+    <row r="451" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B451" s="18"/>
+      <c r="C451" s="19"/>
+      <c r="D451" s="19"/>
+      <c r="E451" s="19"/>
+      <c r="F451" s="19"/>
+      <c r="G451" s="19"/>
+      <c r="H451" s="19"/>
+      <c r="I451" s="19"/>
+      <c r="J451" s="18"/>
+      <c r="K451" s="19"/>
+      <c r="L451" s="19"/>
+      <c r="M451" s="19"/>
+      <c r="N451" s="19"/>
+      <c r="O451" s="19"/>
+      <c r="P451" s="19"/>
+      <c r="Q451" s="19"/>
+      <c r="R451" s="18"/>
+      <c r="S451" s="19"/>
+      <c r="T451" s="19"/>
+      <c r="U451" s="19"/>
+      <c r="V451" s="19"/>
+      <c r="W451" s="19"/>
+      <c r="X451" s="19"/>
+      <c r="Y451" s="19"/>
+      <c r="Z451" s="18"/>
+      <c r="AA451" s="19"/>
+      <c r="AB451" s="19"/>
+      <c r="AC451" s="19"/>
+      <c r="AD451" s="19"/>
+      <c r="AE451" s="19"/>
+      <c r="AF451" s="19"/>
+      <c r="AG451" s="19"/>
+      <c r="AH451" s="18"/>
+      <c r="AI451" s="19"/>
+      <c r="AJ451" s="19"/>
+      <c r="AK451" s="19"/>
+      <c r="AL451" s="19"/>
+      <c r="AM451" s="19"/>
+      <c r="AN451" s="19"/>
+      <c r="AO451" s="19"/>
+      <c r="AP451" s="18"/>
+      <c r="AQ451" s="19"/>
+      <c r="AR451" s="19"/>
+      <c r="AS451" s="19"/>
+      <c r="AT451" s="19"/>
+      <c r="AU451" s="19"/>
+      <c r="AV451" s="19"/>
+      <c r="AW451" s="19"/>
+      <c r="AX451" s="8"/>
+      <c r="AY451" s="1"/>
+      <c r="AZ451" s="1"/>
+      <c r="BA451" s="1"/>
+      <c r="BB451" s="1"/>
+      <c r="BC451" s="1"/>
+      <c r="BD451" s="1"/>
+      <c r="BE451" s="1"/>
+      <c r="BF451" s="1"/>
+      <c r="BG451" s="1"/>
+      <c r="BH451" s="1"/>
+      <c r="BI451" s="1"/>
+      <c r="BJ451" s="1"/>
+      <c r="BK451" s="1"/>
+      <c r="BL451" s="1"/>
+      <c r="BM451" s="1"/>
+      <c r="BN451" s="1"/>
+      <c r="BO451" s="1"/>
+      <c r="BP451" s="1"/>
+      <c r="BQ451" s="1"/>
+      <c r="BR451" s="1"/>
+      <c r="BS451" s="1"/>
+      <c r="BT451" s="1"/>
+      <c r="BU451" s="1"/>
+      <c r="BV451" s="1"/>
+      <c r="BW451" s="1"/>
+      <c r="BX451" s="1"/>
+      <c r="BY451" s="1"/>
+      <c r="BZ451" s="1"/>
+      <c r="CA451" s="1"/>
+      <c r="CB451" s="1"/>
+      <c r="CC451" s="1"/>
+      <c r="CD451" s="1"/>
+      <c r="CE451" s="1"/>
+      <c r="CF451" s="1"/>
+      <c r="CG451" s="1"/>
+      <c r="CH451" s="1"/>
+      <c r="CI451" s="1"/>
+      <c r="CJ451" s="1"/>
+      <c r="CK451" s="1"/>
+      <c r="CL451" s="1"/>
+      <c r="CM451" s="1"/>
+      <c r="CN451" s="1"/>
+      <c r="CO451" s="1"/>
+      <c r="CP451" s="1"/>
+      <c r="CQ451" s="1"/>
+      <c r="CR451" s="1"/>
+      <c r="CS451" s="1"/>
+      <c r="CT451" s="1"/>
+      <c r="CU451" s="1"/>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="8"/>
+      <c r="B452" s="18"/>
+      <c r="C452" s="21"/>
+      <c r="D452" s="21"/>
+      <c r="E452" s="21"/>
+      <c r="F452" s="21"/>
+      <c r="G452" s="21"/>
+      <c r="H452" s="22"/>
+      <c r="I452" s="21"/>
+      <c r="J452" s="18"/>
+      <c r="K452" s="21"/>
+      <c r="L452" s="21"/>
+      <c r="M452" s="21"/>
+      <c r="N452" s="21"/>
+      <c r="O452" s="21"/>
+      <c r="P452" s="22"/>
+      <c r="Q452" s="21"/>
+      <c r="R452" s="18"/>
+      <c r="S452" s="21"/>
+      <c r="T452" s="21"/>
+      <c r="U452" s="21"/>
+      <c r="V452" s="22"/>
+      <c r="W452" s="21"/>
+      <c r="X452" s="22"/>
+      <c r="Y452" s="21"/>
+      <c r="Z452" s="18"/>
+      <c r="AA452" s="21"/>
+      <c r="AB452" s="21"/>
+      <c r="AC452" s="21"/>
+      <c r="AD452" s="21"/>
+      <c r="AE452" s="21"/>
+      <c r="AF452" s="21"/>
+      <c r="AG452" s="21"/>
+      <c r="AH452" s="18"/>
+      <c r="AI452" s="21"/>
+      <c r="AJ452" s="21"/>
+      <c r="AK452" s="21"/>
+      <c r="AL452" s="22"/>
+      <c r="AM452" s="21"/>
+      <c r="AN452" s="22"/>
+      <c r="AO452" s="21"/>
+      <c r="AP452" s="18"/>
+      <c r="AQ452" s="21"/>
+      <c r="AR452" s="21"/>
+      <c r="AS452" s="21"/>
+      <c r="AT452" s="21"/>
+      <c r="AU452" s="21"/>
+      <c r="AV452" s="21"/>
+      <c r="AW452" s="21"/>
+      <c r="AX452" s="8"/>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="8"/>
+      <c r="B453" s="18"/>
+      <c r="C453" s="21"/>
+      <c r="D453" s="21"/>
+      <c r="E453" s="21"/>
+      <c r="F453" s="21"/>
+      <c r="G453" s="21"/>
+      <c r="H453" s="21"/>
+      <c r="I453" s="21"/>
+      <c r="J453" s="18"/>
+      <c r="K453" s="21"/>
+      <c r="L453" s="21"/>
+      <c r="M453" s="21"/>
+      <c r="N453" s="21"/>
+      <c r="O453" s="21"/>
+      <c r="P453" s="21"/>
+      <c r="Q453" s="21"/>
+      <c r="R453" s="18"/>
+      <c r="S453" s="21"/>
+      <c r="T453" s="21"/>
+      <c r="U453" s="21"/>
+      <c r="V453" s="21"/>
+      <c r="W453" s="21"/>
+      <c r="X453" s="22"/>
+      <c r="Y453" s="21"/>
+      <c r="Z453" s="18"/>
+      <c r="AA453" s="21"/>
+      <c r="AB453" s="21"/>
+      <c r="AC453" s="21"/>
+      <c r="AD453" s="21"/>
+      <c r="AE453" s="21"/>
+      <c r="AF453" s="21"/>
+      <c r="AG453" s="21"/>
+      <c r="AH453" s="18"/>
+      <c r="AI453" s="21"/>
+      <c r="AJ453" s="21"/>
+      <c r="AK453" s="21"/>
+      <c r="AL453" s="21"/>
+      <c r="AM453" s="21"/>
+      <c r="AN453" s="22"/>
+      <c r="AO453" s="21"/>
+      <c r="AP453" s="18"/>
+      <c r="AQ453" s="21"/>
+      <c r="AR453" s="21"/>
+      <c r="AS453" s="21"/>
+      <c r="AT453" s="21"/>
+      <c r="AU453" s="21"/>
+      <c r="AV453" s="21"/>
+      <c r="AW453" s="21"/>
+      <c r="AX453" s="8"/>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="8"/>
+      <c r="B454" s="18"/>
+      <c r="C454" s="21"/>
+      <c r="D454" s="21"/>
+      <c r="E454" s="21"/>
+      <c r="F454" s="21"/>
+      <c r="G454" s="21"/>
+      <c r="H454" s="21"/>
+      <c r="I454" s="21"/>
+      <c r="J454" s="18"/>
+      <c r="K454" s="21"/>
+      <c r="L454" s="21"/>
+      <c r="M454" s="21"/>
+      <c r="N454" s="21"/>
+      <c r="O454" s="21"/>
+      <c r="P454" s="21"/>
+      <c r="Q454" s="21"/>
+      <c r="R454" s="18"/>
+      <c r="S454" s="21"/>
+      <c r="T454" s="21"/>
+      <c r="U454" s="21"/>
+      <c r="V454" s="21"/>
+      <c r="W454" s="21"/>
+      <c r="X454" s="22"/>
+      <c r="Y454" s="21"/>
+      <c r="Z454" s="18"/>
+      <c r="AA454" s="21"/>
+      <c r="AB454" s="21"/>
+      <c r="AC454" s="21"/>
+      <c r="AD454" s="21"/>
+      <c r="AE454" s="21"/>
+      <c r="AF454" s="22"/>
+      <c r="AG454" s="21"/>
+      <c r="AH454" s="18"/>
+      <c r="AI454" s="21"/>
+      <c r="AJ454" s="21"/>
+      <c r="AK454" s="21"/>
+      <c r="AL454" s="21"/>
+      <c r="AM454" s="21"/>
+      <c r="AN454" s="22"/>
+      <c r="AO454" s="21"/>
+      <c r="AP454" s="18"/>
+      <c r="AQ454" s="21"/>
+      <c r="AR454" s="21"/>
+      <c r="AS454" s="21"/>
+      <c r="AT454" s="21"/>
+      <c r="AU454" s="21"/>
+      <c r="AV454" s="22"/>
+      <c r="AW454" s="21"/>
+      <c r="AX454" s="8"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="8"/>
+      <c r="B455" s="18"/>
+      <c r="C455" s="21"/>
+      <c r="D455" s="21"/>
+      <c r="E455" s="21"/>
+      <c r="F455" s="21"/>
+      <c r="G455" s="21"/>
+      <c r="H455" s="21"/>
+      <c r="I455" s="21"/>
+      <c r="J455" s="18"/>
+      <c r="K455" s="21"/>
+      <c r="L455" s="21"/>
+      <c r="M455" s="21"/>
+      <c r="N455" s="21"/>
+      <c r="O455" s="21"/>
+      <c r="P455" s="21"/>
+      <c r="Q455" s="21"/>
+      <c r="R455" s="18"/>
+      <c r="S455" s="21"/>
+      <c r="T455" s="21"/>
+      <c r="U455" s="21"/>
+      <c r="V455" s="21"/>
+      <c r="W455" s="21"/>
+      <c r="X455" s="21"/>
+      <c r="Y455" s="21"/>
+      <c r="Z455" s="18"/>
+      <c r="AA455" s="21"/>
+      <c r="AB455" s="21"/>
+      <c r="AC455" s="21"/>
+      <c r="AD455" s="21"/>
+      <c r="AE455" s="21"/>
+      <c r="AF455" s="21"/>
+      <c r="AG455" s="21"/>
+      <c r="AH455" s="18"/>
+      <c r="AI455" s="21"/>
+      <c r="AJ455" s="21"/>
+      <c r="AK455" s="21"/>
+      <c r="AL455" s="21"/>
+      <c r="AM455" s="21"/>
+      <c r="AN455" s="21"/>
+      <c r="AO455" s="21"/>
+      <c r="AP455" s="18"/>
+      <c r="AQ455" s="21"/>
+      <c r="AR455" s="21"/>
+      <c r="AS455" s="21"/>
+      <c r="AT455" s="21"/>
+      <c r="AU455" s="21"/>
+      <c r="AV455" s="21"/>
+      <c r="AW455" s="21"/>
+      <c r="AX455" s="8"/>
+    </row>
+    <row r="456" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="8"/>
+      <c r="B456" s="23"/>
+      <c r="C456" s="23"/>
+      <c r="D456" s="23"/>
+      <c r="E456" s="23"/>
+      <c r="F456" s="23"/>
+      <c r="G456" s="23"/>
+      <c r="H456" s="23"/>
+      <c r="I456" s="23"/>
+      <c r="J456" s="23"/>
+      <c r="K456" s="23"/>
+      <c r="L456" s="23"/>
+      <c r="M456" s="23"/>
+      <c r="N456" s="23"/>
+      <c r="O456" s="23"/>
+      <c r="P456" s="23"/>
+      <c r="Q456" s="23"/>
+      <c r="R456" s="23"/>
+      <c r="S456" s="23"/>
+      <c r="T456" s="23"/>
+      <c r="U456" s="23"/>
+      <c r="V456" s="23"/>
+      <c r="W456" s="23"/>
+      <c r="X456" s="23"/>
+      <c r="Y456" s="23"/>
+      <c r="Z456" s="23"/>
+      <c r="AA456" s="23"/>
+      <c r="AB456" s="23"/>
+      <c r="AC456" s="23"/>
+      <c r="AD456" s="23"/>
+      <c r="AE456" s="23"/>
+      <c r="AF456" s="23"/>
+      <c r="AG456" s="23"/>
+      <c r="AH456" s="23"/>
+      <c r="AI456" s="23"/>
+      <c r="AJ456" s="23"/>
+      <c r="AK456" s="23"/>
+      <c r="AL456" s="23"/>
+      <c r="AM456" s="23"/>
+      <c r="AN456" s="23"/>
+      <c r="AO456" s="23"/>
+      <c r="AP456" s="23"/>
+      <c r="AQ456" s="23"/>
+      <c r="AR456" s="23"/>
+      <c r="AS456" s="23"/>
+      <c r="AT456" s="23"/>
+      <c r="AU456" s="23"/>
+      <c r="AV456" s="23"/>
+      <c r="AW456" s="23"/>
+      <c r="AX456" s="8"/>
+    </row>
+    <row r="457" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="8"/>
+      <c r="B457" s="18"/>
+      <c r="C457" s="24"/>
+      <c r="D457" s="24"/>
+      <c r="E457" s="24"/>
+      <c r="F457" s="24"/>
+      <c r="G457" s="24"/>
+      <c r="H457" s="24"/>
+      <c r="I457" s="24"/>
+      <c r="J457" s="18"/>
+      <c r="K457" s="24"/>
+      <c r="L457" s="24"/>
+      <c r="M457" s="24"/>
+      <c r="N457" s="24"/>
+      <c r="O457" s="24"/>
+      <c r="P457" s="24"/>
+      <c r="Q457" s="24"/>
+      <c r="R457" s="18"/>
+      <c r="S457" s="24"/>
+      <c r="T457" s="24"/>
+      <c r="U457" s="24"/>
+      <c r="V457" s="24"/>
+      <c r="W457" s="24"/>
+      <c r="X457" s="24"/>
+      <c r="Y457" s="24"/>
+      <c r="Z457" s="18"/>
+      <c r="AA457" s="24"/>
+      <c r="AB457" s="24"/>
+      <c r="AC457" s="24"/>
+      <c r="AD457" s="24"/>
+      <c r="AE457" s="24"/>
+      <c r="AF457" s="24"/>
+      <c r="AG457" s="24"/>
+      <c r="AH457" s="18"/>
+      <c r="AI457" s="24"/>
+      <c r="AJ457" s="24"/>
+      <c r="AK457" s="24"/>
+      <c r="AL457" s="24"/>
+      <c r="AM457" s="24"/>
+      <c r="AN457" s="24"/>
+      <c r="AO457" s="24"/>
+      <c r="AP457" s="18"/>
+      <c r="AQ457" s="24"/>
+      <c r="AR457" s="24"/>
+      <c r="AS457" s="24"/>
+      <c r="AT457" s="24"/>
+      <c r="AU457" s="24"/>
+      <c r="AV457" s="24"/>
+      <c r="AW457" s="24"/>
+      <c r="AX457" s="8"/>
+    </row>
+    <row r="458" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="8"/>
+      <c r="B458" s="18"/>
+      <c r="C458" s="24"/>
+      <c r="D458" s="24"/>
+      <c r="E458" s="24"/>
+      <c r="F458" s="24"/>
+      <c r="G458" s="24"/>
+      <c r="H458" s="24"/>
+      <c r="I458" s="24"/>
+      <c r="J458" s="18"/>
+      <c r="K458" s="24"/>
+      <c r="L458" s="24"/>
+      <c r="M458" s="24"/>
+      <c r="N458" s="24"/>
+      <c r="O458" s="24"/>
+      <c r="P458" s="24"/>
+      <c r="Q458" s="24"/>
+      <c r="R458" s="18"/>
+      <c r="S458" s="24"/>
+      <c r="T458" s="24"/>
+      <c r="U458" s="24"/>
+      <c r="V458" s="24"/>
+      <c r="W458" s="24"/>
+      <c r="X458" s="24"/>
+      <c r="Y458" s="24"/>
+      <c r="Z458" s="18"/>
+      <c r="AA458" s="24"/>
+      <c r="AB458" s="24"/>
+      <c r="AC458" s="24"/>
+      <c r="AD458" s="24"/>
+      <c r="AE458" s="24"/>
+      <c r="AF458" s="24"/>
+      <c r="AG458" s="24"/>
+      <c r="AH458" s="18"/>
+      <c r="AI458" s="24"/>
+      <c r="AJ458" s="24"/>
+      <c r="AK458" s="24"/>
+      <c r="AL458" s="24"/>
+      <c r="AM458" s="24"/>
+      <c r="AN458" s="24"/>
+      <c r="AO458" s="24"/>
+      <c r="AP458" s="18"/>
+      <c r="AQ458" s="24"/>
+      <c r="AR458" s="24"/>
+      <c r="AS458" s="24"/>
+      <c r="AT458" s="24"/>
+      <c r="AU458" s="24"/>
+      <c r="AV458" s="24"/>
+      <c r="AW458" s="24"/>
+      <c r="AX458" s="8"/>
+    </row>
+    <row r="459" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B459" s="18"/>
+      <c r="C459" s="19"/>
+      <c r="D459" s="19"/>
+      <c r="E459" s="19"/>
+      <c r="F459" s="19"/>
+      <c r="G459" s="19"/>
+      <c r="H459" s="19"/>
+      <c r="I459" s="19"/>
+      <c r="J459" s="18"/>
+      <c r="K459" s="19"/>
+      <c r="L459" s="19"/>
+      <c r="M459" s="19"/>
+      <c r="N459" s="19"/>
+      <c r="O459" s="19"/>
+      <c r="P459" s="19"/>
+      <c r="Q459" s="19"/>
+      <c r="R459" s="18"/>
+      <c r="S459" s="19"/>
+      <c r="T459" s="19"/>
+      <c r="U459" s="19"/>
+      <c r="V459" s="19"/>
+      <c r="W459" s="19"/>
+      <c r="X459" s="19"/>
+      <c r="Y459" s="19"/>
+      <c r="Z459" s="18"/>
+      <c r="AA459" s="19"/>
+      <c r="AB459" s="19"/>
+      <c r="AC459" s="19"/>
+      <c r="AD459" s="19"/>
+      <c r="AE459" s="19"/>
+      <c r="AF459" s="19"/>
+      <c r="AG459" s="19"/>
+      <c r="AH459" s="18"/>
+      <c r="AI459" s="19"/>
+      <c r="AJ459" s="19"/>
+      <c r="AK459" s="19"/>
+      <c r="AL459" s="19"/>
+      <c r="AM459" s="19"/>
+      <c r="AN459" s="19"/>
+      <c r="AO459" s="19"/>
+      <c r="AP459" s="18"/>
+      <c r="AQ459" s="19"/>
+      <c r="AR459" s="19"/>
+      <c r="AS459" s="19"/>
+      <c r="AT459" s="19"/>
+      <c r="AU459" s="19"/>
+      <c r="AV459" s="19"/>
+      <c r="AW459" s="19"/>
+      <c r="AX459" s="8"/>
+      <c r="AY459" s="1"/>
+      <c r="AZ459" s="1"/>
+      <c r="BA459" s="1"/>
+      <c r="BB459" s="1"/>
+      <c r="BC459" s="1"/>
+      <c r="BD459" s="1"/>
+      <c r="BE459" s="1"/>
+      <c r="BF459" s="1"/>
+      <c r="BG459" s="1"/>
+      <c r="BH459" s="1"/>
+      <c r="BI459" s="1"/>
+      <c r="BJ459" s="1"/>
+      <c r="BK459" s="1"/>
+      <c r="BL459" s="1"/>
+      <c r="BM459" s="1"/>
+      <c r="BN459" s="1"/>
+      <c r="BO459" s="1"/>
+      <c r="BP459" s="1"/>
+      <c r="BQ459" s="1"/>
+      <c r="BR459" s="1"/>
+      <c r="BS459" s="1"/>
+      <c r="BT459" s="1"/>
+      <c r="BU459" s="1"/>
+      <c r="BV459" s="1"/>
+      <c r="BW459" s="1"/>
+      <c r="BX459" s="1"/>
+      <c r="BY459" s="1"/>
+      <c r="BZ459" s="1"/>
+      <c r="CA459" s="1"/>
+      <c r="CB459" s="1"/>
+      <c r="CC459" s="1"/>
+      <c r="CD459" s="1"/>
+      <c r="CE459" s="1"/>
+      <c r="CF459" s="1"/>
+      <c r="CG459" s="1"/>
+      <c r="CH459" s="1"/>
+      <c r="CI459" s="1"/>
+      <c r="CJ459" s="1"/>
+      <c r="CK459" s="1"/>
+      <c r="CL459" s="1"/>
+      <c r="CM459" s="1"/>
+      <c r="CN459" s="1"/>
+      <c r="CO459" s="1"/>
+      <c r="CP459" s="1"/>
+      <c r="CQ459" s="1"/>
+      <c r="CR459" s="1"/>
+      <c r="CS459" s="1"/>
+      <c r="CT459" s="1"/>
+      <c r="CU459" s="1"/>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="8"/>
+      <c r="B460" s="18"/>
+      <c r="C460" s="21"/>
+      <c r="D460" s="21"/>
+      <c r="E460" s="21"/>
+      <c r="F460" s="21"/>
+      <c r="G460" s="21"/>
+      <c r="H460" s="22"/>
+      <c r="I460" s="21"/>
+      <c r="J460" s="18"/>
+      <c r="K460" s="21"/>
+      <c r="L460" s="21"/>
+      <c r="M460" s="21"/>
+      <c r="N460" s="21"/>
+      <c r="O460" s="21"/>
+      <c r="P460" s="22"/>
+      <c r="Q460" s="21"/>
+      <c r="R460" s="18"/>
+      <c r="S460" s="21"/>
+      <c r="T460" s="21"/>
+      <c r="U460" s="21"/>
+      <c r="V460" s="22"/>
+      <c r="W460" s="21"/>
+      <c r="X460" s="22"/>
+      <c r="Y460" s="21"/>
+      <c r="Z460" s="18"/>
+      <c r="AA460" s="21"/>
+      <c r="AB460" s="21"/>
+      <c r="AC460" s="21"/>
+      <c r="AD460" s="21"/>
+      <c r="AE460" s="21"/>
+      <c r="AF460" s="21"/>
+      <c r="AG460" s="21"/>
+      <c r="AH460" s="18"/>
+      <c r="AI460" s="21"/>
+      <c r="AJ460" s="21"/>
+      <c r="AK460" s="21"/>
+      <c r="AL460" s="22"/>
+      <c r="AM460" s="21"/>
+      <c r="AN460" s="22"/>
+      <c r="AO460" s="21"/>
+      <c r="AP460" s="18"/>
+      <c r="AQ460" s="21"/>
+      <c r="AR460" s="21"/>
+      <c r="AS460" s="21"/>
+      <c r="AT460" s="21"/>
+      <c r="AU460" s="21"/>
+      <c r="AV460" s="21"/>
+      <c r="AW460" s="21"/>
+      <c r="AX460" s="8"/>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="8"/>
+      <c r="B461" s="18"/>
+      <c r="C461" s="21"/>
+      <c r="D461" s="21"/>
+      <c r="E461" s="21"/>
+      <c r="F461" s="21"/>
+      <c r="G461" s="21"/>
+      <c r="H461" s="21"/>
+      <c r="I461" s="21"/>
+      <c r="J461" s="18"/>
+      <c r="K461" s="21"/>
+      <c r="L461" s="21"/>
+      <c r="M461" s="21"/>
+      <c r="N461" s="21"/>
+      <c r="O461" s="21"/>
+      <c r="P461" s="21"/>
+      <c r="Q461" s="21"/>
+      <c r="R461" s="18"/>
+      <c r="S461" s="21"/>
+      <c r="T461" s="21"/>
+      <c r="U461" s="21"/>
+      <c r="V461" s="21"/>
+      <c r="W461" s="21"/>
+      <c r="X461" s="22"/>
+      <c r="Y461" s="21"/>
+      <c r="Z461" s="18"/>
+      <c r="AA461" s="21"/>
+      <c r="AB461" s="21"/>
+      <c r="AC461" s="21"/>
+      <c r="AD461" s="21"/>
+      <c r="AE461" s="21"/>
+      <c r="AF461" s="21"/>
+      <c r="AG461" s="21"/>
+      <c r="AH461" s="18"/>
+      <c r="AI461" s="21"/>
+      <c r="AJ461" s="21"/>
+      <c r="AK461" s="21"/>
+      <c r="AL461" s="21"/>
+      <c r="AM461" s="21"/>
+      <c r="AN461" s="22"/>
+      <c r="AO461" s="21"/>
+      <c r="AP461" s="18"/>
+      <c r="AQ461" s="21"/>
+      <c r="AR461" s="21"/>
+      <c r="AS461" s="21"/>
+      <c r="AT461" s="21"/>
+      <c r="AU461" s="21"/>
+      <c r="AV461" s="21"/>
+      <c r="AW461" s="21"/>
+      <c r="AX461" s="8"/>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="8"/>
+      <c r="B462" s="18"/>
+      <c r="C462" s="21"/>
+      <c r="D462" s="21"/>
+      <c r="E462" s="21"/>
+      <c r="F462" s="21"/>
+      <c r="G462" s="21"/>
+      <c r="H462" s="21"/>
+      <c r="I462" s="21"/>
+      <c r="J462" s="18"/>
+      <c r="K462" s="21"/>
+      <c r="L462" s="21"/>
+      <c r="M462" s="21"/>
+      <c r="N462" s="21"/>
+      <c r="O462" s="21"/>
+      <c r="P462" s="21"/>
+      <c r="Q462" s="21"/>
+      <c r="R462" s="18"/>
+      <c r="S462" s="21"/>
+      <c r="T462" s="21"/>
+      <c r="U462" s="21"/>
+      <c r="V462" s="21"/>
+      <c r="W462" s="21"/>
+      <c r="X462" s="22"/>
+      <c r="Y462" s="21"/>
+      <c r="Z462" s="18"/>
+      <c r="AA462" s="21"/>
+      <c r="AB462" s="21"/>
+      <c r="AC462" s="21"/>
+      <c r="AD462" s="21"/>
+      <c r="AE462" s="21"/>
+      <c r="AF462" s="22"/>
+      <c r="AG462" s="21"/>
+      <c r="AH462" s="18"/>
+      <c r="AI462" s="21"/>
+      <c r="AJ462" s="21"/>
+      <c r="AK462" s="21"/>
+      <c r="AL462" s="21"/>
+      <c r="AM462" s="21"/>
+      <c r="AN462" s="22"/>
+      <c r="AO462" s="21"/>
+      <c r="AP462" s="18"/>
+      <c r="AQ462" s="21"/>
+      <c r="AR462" s="21"/>
+      <c r="AS462" s="21"/>
+      <c r="AT462" s="21"/>
+      <c r="AU462" s="21"/>
+      <c r="AV462" s="22"/>
+      <c r="AW462" s="21"/>
+      <c r="AX462" s="8"/>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="8"/>
+      <c r="B463" s="18"/>
+      <c r="C463" s="21"/>
+      <c r="D463" s="21"/>
+      <c r="E463" s="21"/>
+      <c r="F463" s="21"/>
+      <c r="G463" s="21"/>
+      <c r="H463" s="21"/>
+      <c r="I463" s="21"/>
+      <c r="J463" s="18"/>
+      <c r="K463" s="21"/>
+      <c r="L463" s="21"/>
+      <c r="M463" s="21"/>
+      <c r="N463" s="21"/>
+      <c r="O463" s="21"/>
+      <c r="P463" s="21"/>
+      <c r="Q463" s="21"/>
+      <c r="R463" s="18"/>
+      <c r="S463" s="21"/>
+      <c r="T463" s="21"/>
+      <c r="U463" s="21"/>
+      <c r="V463" s="21"/>
+      <c r="W463" s="21"/>
+      <c r="X463" s="21"/>
+      <c r="Y463" s="21"/>
+      <c r="Z463" s="18"/>
+      <c r="AA463" s="21"/>
+      <c r="AB463" s="21"/>
+      <c r="AC463" s="21"/>
+      <c r="AD463" s="21"/>
+      <c r="AE463" s="21"/>
+      <c r="AF463" s="21"/>
+      <c r="AG463" s="21"/>
+      <c r="AH463" s="18"/>
+      <c r="AI463" s="21"/>
+      <c r="AJ463" s="21"/>
+      <c r="AK463" s="21"/>
+      <c r="AL463" s="21"/>
+      <c r="AM463" s="21"/>
+      <c r="AN463" s="21"/>
+      <c r="AO463" s="21"/>
+      <c r="AP463" s="18"/>
+      <c r="AQ463" s="21"/>
+      <c r="AR463" s="21"/>
+      <c r="AS463" s="21"/>
+      <c r="AT463" s="21"/>
+      <c r="AU463" s="21"/>
+      <c r="AV463" s="21"/>
+      <c r="AW463" s="21"/>
+      <c r="AX463" s="8"/>
+    </row>
+    <row r="464" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="8"/>
+      <c r="B464" s="23"/>
+      <c r="C464" s="23"/>
+      <c r="D464" s="23"/>
+      <c r="E464" s="23"/>
+      <c r="F464" s="23"/>
+      <c r="G464" s="23"/>
+      <c r="H464" s="23"/>
+      <c r="I464" s="23"/>
+      <c r="J464" s="23"/>
+      <c r="K464" s="23"/>
+      <c r="L464" s="23"/>
+      <c r="M464" s="23"/>
+      <c r="N464" s="23"/>
+      <c r="O464" s="23"/>
+      <c r="P464" s="23"/>
+      <c r="Q464" s="23"/>
+      <c r="R464" s="23"/>
+      <c r="S464" s="23"/>
+      <c r="T464" s="23"/>
+      <c r="U464" s="23"/>
+      <c r="V464" s="23"/>
+      <c r="W464" s="23"/>
+      <c r="X464" s="23"/>
+      <c r="Y464" s="23"/>
+      <c r="Z464" s="23"/>
+      <c r="AA464" s="23"/>
+      <c r="AB464" s="23"/>
+      <c r="AC464" s="23"/>
+      <c r="AD464" s="23"/>
+      <c r="AE464" s="23"/>
+      <c r="AF464" s="23"/>
+      <c r="AG464" s="23"/>
+      <c r="AH464" s="23"/>
+      <c r="AI464" s="23"/>
+      <c r="AJ464" s="23"/>
+      <c r="AK464" s="23"/>
+      <c r="AL464" s="23"/>
+      <c r="AM464" s="23"/>
+      <c r="AN464" s="23"/>
+      <c r="AO464" s="23"/>
+      <c r="AP464" s="23"/>
+      <c r="AQ464" s="23"/>
+      <c r="AR464" s="23"/>
+      <c r="AS464" s="23"/>
+      <c r="AT464" s="23"/>
+      <c r="AU464" s="23"/>
+      <c r="AV464" s="23"/>
+      <c r="AW464" s="23"/>
+      <c r="AX464" s="8"/>
+    </row>
+    <row r="465" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="8"/>
+      <c r="B465" s="18"/>
+      <c r="C465" s="24"/>
+      <c r="D465" s="24"/>
+      <c r="E465" s="24"/>
+      <c r="F465" s="24"/>
+      <c r="G465" s="24"/>
+      <c r="H465" s="24"/>
+      <c r="I465" s="24"/>
+      <c r="J465" s="18"/>
+      <c r="K465" s="24"/>
+      <c r="L465" s="24"/>
+      <c r="M465" s="24"/>
+      <c r="N465" s="24"/>
+      <c r="O465" s="24"/>
+      <c r="P465" s="24"/>
+      <c r="Q465" s="24"/>
+      <c r="R465" s="18"/>
+      <c r="S465" s="24"/>
+      <c r="T465" s="24"/>
+      <c r="U465" s="24"/>
+      <c r="V465" s="24"/>
+      <c r="W465" s="24"/>
+      <c r="X465" s="24"/>
+      <c r="Y465" s="24"/>
+      <c r="Z465" s="18"/>
+      <c r="AA465" s="24"/>
+      <c r="AB465" s="24"/>
+      <c r="AC465" s="24"/>
+      <c r="AD465" s="24"/>
+      <c r="AE465" s="24"/>
+      <c r="AF465" s="24"/>
+      <c r="AG465" s="24"/>
+      <c r="AH465" s="18"/>
+      <c r="AI465" s="24"/>
+      <c r="AJ465" s="24"/>
+      <c r="AK465" s="24"/>
+      <c r="AL465" s="24"/>
+      <c r="AM465" s="24"/>
+      <c r="AN465" s="24"/>
+      <c r="AO465" s="24"/>
+      <c r="AP465" s="18"/>
+      <c r="AQ465" s="24"/>
+      <c r="AR465" s="24"/>
+      <c r="AS465" s="24"/>
+      <c r="AT465" s="24"/>
+      <c r="AU465" s="24"/>
+      <c r="AV465" s="24"/>
+      <c r="AW465" s="24"/>
+      <c r="AX465" s="8"/>
+    </row>
+    <row r="466" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="8"/>
+      <c r="B466" s="18"/>
+      <c r="C466" s="24"/>
+      <c r="D466" s="24"/>
+      <c r="E466" s="24"/>
+      <c r="F466" s="24"/>
+      <c r="G466" s="24"/>
+      <c r="H466" s="24"/>
+      <c r="I466" s="24"/>
+      <c r="J466" s="18"/>
+      <c r="K466" s="24"/>
+      <c r="L466" s="24"/>
+      <c r="M466" s="24"/>
+      <c r="N466" s="24"/>
+      <c r="O466" s="24"/>
+      <c r="P466" s="24"/>
+      <c r="Q466" s="24"/>
+      <c r="R466" s="18"/>
+      <c r="S466" s="24"/>
+      <c r="T466" s="24"/>
+      <c r="U466" s="24"/>
+      <c r="V466" s="24"/>
+      <c r="W466" s="24"/>
+      <c r="X466" s="24"/>
+      <c r="Y466" s="24"/>
+      <c r="Z466" s="18"/>
+      <c r="AA466" s="24"/>
+      <c r="AB466" s="24"/>
+      <c r="AC466" s="24"/>
+      <c r="AD466" s="24"/>
+      <c r="AE466" s="24"/>
+      <c r="AF466" s="24"/>
+      <c r="AG466" s="24"/>
+      <c r="AH466" s="18"/>
+      <c r="AI466" s="24"/>
+      <c r="AJ466" s="24"/>
+      <c r="AK466" s="24"/>
+      <c r="AL466" s="24"/>
+      <c r="AM466" s="24"/>
+      <c r="AN466" s="24"/>
+      <c r="AO466" s="24"/>
+      <c r="AP466" s="18"/>
+      <c r="AQ466" s="24"/>
+      <c r="AR466" s="24"/>
+      <c r="AS466" s="24"/>
+      <c r="AT466" s="24"/>
+      <c r="AU466" s="24"/>
+      <c r="AV466" s="24"/>
+      <c r="AW466" s="24"/>
+      <c r="AX466" s="8"/>
+    </row>
+    <row r="467" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B467" s="18"/>
+      <c r="C467" s="19"/>
+      <c r="D467" s="19"/>
+      <c r="E467" s="19"/>
+      <c r="F467" s="19"/>
+      <c r="G467" s="19"/>
+      <c r="H467" s="19"/>
+      <c r="I467" s="19"/>
+      <c r="J467" s="18"/>
+      <c r="K467" s="19"/>
+      <c r="L467" s="19"/>
+      <c r="M467" s="19"/>
+      <c r="N467" s="19"/>
+      <c r="O467" s="19"/>
+      <c r="P467" s="19"/>
+      <c r="Q467" s="19"/>
+      <c r="R467" s="18"/>
+      <c r="S467" s="19"/>
+      <c r="T467" s="19"/>
+      <c r="U467" s="19"/>
+      <c r="V467" s="19"/>
+      <c r="W467" s="19"/>
+      <c r="X467" s="19"/>
+      <c r="Y467" s="19"/>
+      <c r="Z467" s="18"/>
+      <c r="AA467" s="19"/>
+      <c r="AB467" s="19"/>
+      <c r="AC467" s="19"/>
+      <c r="AD467" s="19"/>
+      <c r="AE467" s="19"/>
+      <c r="AF467" s="19"/>
+      <c r="AG467" s="19"/>
+      <c r="AH467" s="18"/>
+      <c r="AI467" s="19"/>
+      <c r="AJ467" s="19"/>
+      <c r="AK467" s="19"/>
+      <c r="AL467" s="19"/>
+      <c r="AM467" s="19"/>
+      <c r="AN467" s="19"/>
+      <c r="AO467" s="19"/>
+      <c r="AP467" s="18"/>
+      <c r="AQ467" s="19"/>
+      <c r="AR467" s="19"/>
+      <c r="AS467" s="19"/>
+      <c r="AT467" s="19"/>
+      <c r="AU467" s="19"/>
+      <c r="AV467" s="19"/>
+      <c r="AW467" s="19"/>
+      <c r="AX467" s="8"/>
+      <c r="AY467" s="1"/>
+      <c r="AZ467" s="1"/>
+      <c r="BA467" s="1"/>
+      <c r="BB467" s="1"/>
+      <c r="BC467" s="1"/>
+      <c r="BD467" s="1"/>
+      <c r="BE467" s="1"/>
+      <c r="BF467" s="1"/>
+      <c r="BG467" s="1"/>
+      <c r="BH467" s="1"/>
+      <c r="BI467" s="1"/>
+      <c r="BJ467" s="1"/>
+      <c r="BK467" s="1"/>
+      <c r="BL467" s="1"/>
+      <c r="BM467" s="1"/>
+      <c r="BN467" s="1"/>
+      <c r="BO467" s="1"/>
+      <c r="BP467" s="1"/>
+      <c r="BQ467" s="1"/>
+      <c r="BR467" s="1"/>
+      <c r="BS467" s="1"/>
+      <c r="BT467" s="1"/>
+      <c r="BU467" s="1"/>
+      <c r="BV467" s="1"/>
+      <c r="BW467" s="1"/>
+      <c r="BX467" s="1"/>
+      <c r="BY467" s="1"/>
+      <c r="BZ467" s="1"/>
+      <c r="CA467" s="1"/>
+      <c r="CB467" s="1"/>
+      <c r="CC467" s="1"/>
+      <c r="CD467" s="1"/>
+      <c r="CE467" s="1"/>
+      <c r="CF467" s="1"/>
+      <c r="CG467" s="1"/>
+      <c r="CH467" s="1"/>
+      <c r="CI467" s="1"/>
+      <c r="CJ467" s="1"/>
+      <c r="CK467" s="1"/>
+      <c r="CL467" s="1"/>
+      <c r="CM467" s="1"/>
+      <c r="CN467" s="1"/>
+      <c r="CO467" s="1"/>
+      <c r="CP467" s="1"/>
+      <c r="CQ467" s="1"/>
+      <c r="CR467" s="1"/>
+      <c r="CS467" s="1"/>
+      <c r="CT467" s="1"/>
+      <c r="CU467" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="B1:Q1"/>
